--- a/Excel/drop.掉落.xlsx
+++ b/Excel/drop.掉落.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F15704-6707-4599-9BEE-7A17D9DF8181}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879D1197-15CA-4D54-98D0-0F6AB6ED67BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="89">
   <si>
     <t>sheet名</t>
   </si>
@@ -334,6 +334,18 @@
   </si>
   <si>
     <t>groupId,help_col,loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weightSum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重和</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -846,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4490,398 +4502,545 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FD70F-D7F6-4B87-B905-1A30142832F7}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C11" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C12" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C13" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C14" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C15" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C16" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C17" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C18" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C19" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C20" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C21" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C22" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C23" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C24" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C25" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C26" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C27" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C28" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C29" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C30" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C31" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C32" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C33" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C34" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C35" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C36" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C37" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C38" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C39" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C40" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C41" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C42" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C43" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C44" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C45" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C46" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C47" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="C48" s="3">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/drop.掉落.xlsx
+++ b/Excel/drop.掉落.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879D1197-15CA-4D54-98D0-0F6AB6ED67BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69719E81-30EB-4971-A4DC-4F2D419D1BD0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="89">
   <si>
     <t>sheet名</t>
   </si>
@@ -4505,7 +4505,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K14" sqref="K14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/drop.掉落.xlsx
+++ b/Excel/drop.掉落.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69719E81-30EB-4971-A4DC-4F2D419D1BD0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F18123B-8304-4FFB-B80F-70793745D31C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="162">
   <si>
     <t>sheet名</t>
   </si>
@@ -346,6 +346,238 @@
   </si>
   <si>
     <t>权重和</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击晶片S1</t>
+  </si>
+  <si>
+    <t>防御晶片S1</t>
+  </si>
+  <si>
+    <t>生命晶片S1</t>
+  </si>
+  <si>
+    <t>护盾晶片S1</t>
+  </si>
+  <si>
+    <t>护盾回复晶片S1</t>
+  </si>
+  <si>
+    <t>暴击晶片S1</t>
+  </si>
+  <si>
+    <t>抗暴晶片S1</t>
+  </si>
+  <si>
+    <t>冲击晶片S1</t>
+  </si>
+  <si>
+    <t>格挡晶片S1</t>
+  </si>
+  <si>
+    <t>伤害提升晶片S1</t>
+  </si>
+  <si>
+    <t>伤害减免晶片S1</t>
+  </si>
+  <si>
+    <t>金币获取晶片S1</t>
+  </si>
+  <si>
+    <t>幸运晶片S1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击晶片S2</t>
+  </si>
+  <si>
+    <t>防御晶片S2</t>
+  </si>
+  <si>
+    <t>生命晶片S2</t>
+  </si>
+  <si>
+    <t>护盾晶片S2</t>
+  </si>
+  <si>
+    <t>护盾回复晶片S2</t>
+  </si>
+  <si>
+    <t>暴击晶片S2</t>
+  </si>
+  <si>
+    <t>抗暴晶片S2</t>
+  </si>
+  <si>
+    <t>冲击晶片S2</t>
+  </si>
+  <si>
+    <t>格挡晶片S2</t>
+  </si>
+  <si>
+    <t>伤害提升晶片S2</t>
+  </si>
+  <si>
+    <t>伤害减免晶片S2</t>
+  </si>
+  <si>
+    <t>金币获取晶片S2</t>
+  </si>
+  <si>
+    <t>幸运晶片S2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击晶片S3</t>
+  </si>
+  <si>
+    <t>防御晶片S3</t>
+  </si>
+  <si>
+    <t>生命晶片S3</t>
+  </si>
+  <si>
+    <t>护盾晶片S3</t>
+  </si>
+  <si>
+    <t>护盾回复晶片S3</t>
+  </si>
+  <si>
+    <t>暴击晶片S3</t>
+  </si>
+  <si>
+    <t>抗暴晶片S3</t>
+  </si>
+  <si>
+    <t>冲击晶片S3</t>
+  </si>
+  <si>
+    <t>格挡晶片S3</t>
+  </si>
+  <si>
+    <t>伤害提升晶片S3</t>
+  </si>
+  <si>
+    <t>伤害减免晶片S3</t>
+  </si>
+  <si>
+    <t>金币获取晶片S3</t>
+  </si>
+  <si>
+    <t>幸运晶片S3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击晶片S4</t>
+  </si>
+  <si>
+    <t>防御晶片S4</t>
+  </si>
+  <si>
+    <t>生命晶片S4</t>
+  </si>
+  <si>
+    <t>护盾晶片S4</t>
+  </si>
+  <si>
+    <t>护盾回复晶片S4</t>
+  </si>
+  <si>
+    <t>暴击晶片S4</t>
+  </si>
+  <si>
+    <t>抗暴晶片S4</t>
+  </si>
+  <si>
+    <t>冲击晶片S4</t>
+  </si>
+  <si>
+    <t>格挡晶片S4</t>
+  </si>
+  <si>
+    <t>伤害提升晶片S4</t>
+  </si>
+  <si>
+    <t>伤害减免晶片S4</t>
+  </si>
+  <si>
+    <t>金币获取晶片S4</t>
+  </si>
+  <si>
+    <t>幸运晶片S4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击晶片S5</t>
+  </si>
+  <si>
+    <t>防御晶片S5</t>
+  </si>
+  <si>
+    <t>生命晶片S5</t>
+  </si>
+  <si>
+    <t>护盾晶片S5</t>
+  </si>
+  <si>
+    <t>护盾回复晶片S5</t>
+  </si>
+  <si>
+    <t>暴击晶片S5</t>
+  </si>
+  <si>
+    <t>抗暴晶片S5</t>
+  </si>
+  <si>
+    <t>冲击晶片S5</t>
+  </si>
+  <si>
+    <t>格挡晶片S5</t>
+  </si>
+  <si>
+    <t>伤害提升晶片S5</t>
+  </si>
+  <si>
+    <t>伤害减免晶片S5</t>
+  </si>
+  <si>
+    <t>金币获取晶片S5</t>
+  </si>
+  <si>
+    <t>幸运晶片S5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级晶片13个（抽奖奖池）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级晶片13个（抽奖奖池）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级晶片13个（抽奖奖池）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级晶片13个（抽奖奖池）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级晶片13个（抽奖奖池）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +779,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -564,6 +796,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -859,7 +1098,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -980,22 +1219,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86DF135-B4EE-41D0-A47D-63CEE6568C5F}">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1006,22 +1247,25 @@
         <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1032,13 +1276,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -1046,8 +1290,11 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1058,22 +1305,25 @@
         <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1083,23 +1333,24 @@
       <c r="C4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1109,23 +1360,24 @@
       <c r="C5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
       <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1135,23 +1387,24 @@
       <c r="C6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1161,23 +1414,24 @@
       <c r="C7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
       </c>
       <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1187,23 +1441,24 @@
       <c r="C8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
       <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1213,23 +1468,24 @@
       <c r="C9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
       </c>
       <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1239,23 +1495,24 @@
       <c r="C10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1265,23 +1522,24 @@
       <c r="C11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
       </c>
       <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1291,23 +1549,24 @@
       <c r="C12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
-        <v>11</v>
-      </c>
       <c r="F12" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G12" s="3">
         <v>3</v>
       </c>
       <c r="H12" s="3">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1317,23 +1576,24 @@
       <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1343,23 +1603,24 @@
       <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="3">
-        <v>2</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1369,23 +1630,24 @@
       <c r="C15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
-        <v>11</v>
-      </c>
       <c r="F15" s="3">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -1395,23 +1657,24 @@
       <c r="C16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
         <v>3</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1421,23 +1684,24 @@
       <c r="C17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
         <v>4</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1447,23 +1711,24 @@
       <c r="C18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
-        <v>11</v>
-      </c>
       <c r="F18" s="3">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1473,23 +1738,24 @@
       <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
         <v>3</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1499,23 +1765,24 @@
       <c r="C20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
+        <v>11</v>
+      </c>
+      <c r="G20" s="3">
         <v>5</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1525,23 +1792,24 @@
       <c r="C21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
-        <v>11</v>
-      </c>
       <c r="F21" s="3">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3">
         <v>10</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1551,25 +1819,26 @@
       <c r="C22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" ref="F22:F45" si="0">F19+2</f>
+        <v>11</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" ref="G22:G45" si="0">G19+2</f>
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <f>G19+3</f>
+      <c r="H22" s="3">
+        <f>H19+3</f>
         <v>6</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1579,25 +1848,26 @@
       <c r="C23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G23" s="3">
-        <f>G20+4</f>
+      <c r="H23" s="3">
+        <f>H20+4</f>
         <v>12</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1607,25 +1877,26 @@
       <c r="C24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
-        <v>11</v>
-      </c>
       <c r="F24" s="3">
+        <v>11</v>
+      </c>
+      <c r="G24" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G24" s="3">
-        <f>G21+5</f>
+      <c r="H24" s="3">
+        <f>H21+5</f>
         <v>20</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1635,25 +1906,26 @@
       <c r="C25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F25" s="3">
+        <v>11</v>
+      </c>
+      <c r="G25" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="3">
-        <f>G22+3</f>
+      <c r="H25" s="3">
+        <f>H22+3</f>
         <v>9</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -1663,25 +1935,26 @@
       <c r="C26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G26" s="3">
-        <f>G23+4</f>
+      <c r="H26" s="3">
+        <f>H23+4</f>
         <v>16</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -1691,25 +1964,26 @@
       <c r="C27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="E27" s="3">
-        <v>11</v>
-      </c>
       <c r="F27" s="3">
+        <v>11</v>
+      </c>
+      <c r="G27" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G27" s="3">
-        <f>G24+5</f>
+      <c r="H27" s="3">
+        <f>H24+5</f>
         <v>25</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -1719,25 +1993,26 @@
       <c r="C28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3">
+        <v>11</v>
+      </c>
+      <c r="G28" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G28" s="3">
-        <f>G25+3</f>
+      <c r="H28" s="3">
+        <f>H25+3</f>
         <v>12</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -1747,25 +2022,26 @@
       <c r="C29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="3">
-        <v>2</v>
-      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3">
+        <v>11</v>
+      </c>
+      <c r="G29" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G29" s="3">
-        <f>G26+4</f>
+      <c r="H29" s="3">
+        <f>H26+4</f>
         <v>20</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -1775,25 +2051,26 @@
       <c r="C30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="3">
-        <v>11</v>
-      </c>
       <c r="F30" s="3">
+        <v>11</v>
+      </c>
+      <c r="G30" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G30" s="3">
-        <f>G27+5</f>
+      <c r="H30" s="3">
+        <f>H27+5</f>
         <v>30</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -1803,25 +2080,26 @@
       <c r="C31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3">
+        <v>11</v>
+      </c>
+      <c r="G31" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G31" s="3">
-        <f>G28+3</f>
+      <c r="H31" s="3">
+        <f>H28+3</f>
         <v>15</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -1831,25 +2109,26 @@
       <c r="C32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="3">
-        <v>2</v>
-      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3">
+        <v>11</v>
+      </c>
+      <c r="G32" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G32" s="3">
-        <f>G29+4</f>
+      <c r="H32" s="3">
+        <f>H29+4</f>
         <v>24</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -1859,25 +2138,26 @@
       <c r="C33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
         <v>3</v>
       </c>
-      <c r="E33" s="3">
-        <v>11</v>
-      </c>
       <c r="F33" s="3">
+        <v>11</v>
+      </c>
+      <c r="G33" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G33" s="3">
-        <f>G30+5</f>
+      <c r="H33" s="3">
+        <f>H30+5</f>
         <v>35</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -1887,25 +2167,26 @@
       <c r="C34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F34" s="3">
+        <v>11</v>
+      </c>
+      <c r="G34" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G34" s="3">
-        <f>G31+3</f>
+      <c r="H34" s="3">
+        <f>H31+3</f>
         <v>18</v>
       </c>
-      <c r="H34" s="3">
+      <c r="I34" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -1915,25 +2196,26 @@
       <c r="C35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="3">
-        <v>2</v>
-      </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F35" s="3">
+        <v>11</v>
+      </c>
+      <c r="G35" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G35" s="3">
-        <f>G32+4</f>
+      <c r="H35" s="3">
+        <f>H32+4</f>
         <v>28</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -1943,25 +2225,26 @@
       <c r="C36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
         <v>3</v>
       </c>
-      <c r="E36" s="3">
-        <v>11</v>
-      </c>
       <c r="F36" s="3">
+        <v>11</v>
+      </c>
+      <c r="G36" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G36" s="3">
-        <f>G33+5</f>
+      <c r="H36" s="3">
+        <f>H33+5</f>
         <v>40</v>
       </c>
-      <c r="H36" s="3">
+      <c r="I36" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -1971,25 +2254,26 @@
       <c r="C37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F37" s="3">
+        <v>11</v>
+      </c>
+      <c r="G37" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G37" s="3">
-        <f>G34+3</f>
+      <c r="H37" s="3">
+        <f>H34+3</f>
         <v>21</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -1999,25 +2283,26 @@
       <c r="C38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="3">
-        <v>2</v>
-      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F38" s="3">
+        <v>11</v>
+      </c>
+      <c r="G38" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G38" s="3">
-        <f>G35+4</f>
+      <c r="H38" s="3">
+        <f>H35+4</f>
         <v>32</v>
       </c>
-      <c r="H38" s="3">
+      <c r="I38" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -2027,25 +2312,26 @@
       <c r="C39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
         <v>3</v>
       </c>
-      <c r="E39" s="3">
-        <v>11</v>
-      </c>
       <c r="F39" s="3">
+        <v>11</v>
+      </c>
+      <c r="G39" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G39" s="3">
-        <f>G36+5</f>
+      <c r="H39" s="3">
+        <f>H36+5</f>
         <v>45</v>
       </c>
-      <c r="H39" s="3">
+      <c r="I39" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -2055,25 +2341,26 @@
       <c r="C40" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F40" s="3">
+        <v>11</v>
+      </c>
+      <c r="G40" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G40" s="3">
-        <f>G37+3</f>
+      <c r="H40" s="3">
+        <f>H37+3</f>
         <v>24</v>
       </c>
-      <c r="H40" s="3">
+      <c r="I40" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -2083,25 +2370,26 @@
       <c r="C41" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="3">
-        <v>2</v>
-      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F41" s="3">
+        <v>11</v>
+      </c>
+      <c r="G41" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="G41" s="3">
-        <f>G38+4</f>
+      <c r="H41" s="3">
+        <f>H38+4</f>
         <v>36</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -2111,25 +2399,26 @@
       <c r="C42" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
         <v>3</v>
       </c>
-      <c r="E42" s="3">
-        <v>11</v>
-      </c>
       <c r="F42" s="3">
+        <v>11</v>
+      </c>
+      <c r="G42" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G42" s="3">
-        <f>G39+5</f>
+      <c r="H42" s="3">
+        <f>H39+5</f>
         <v>50</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -2139,25 +2428,26 @@
       <c r="C43" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F43" s="3">
+        <v>11</v>
+      </c>
+      <c r="G43" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G43" s="3">
-        <f>G40+3</f>
+      <c r="H43" s="3">
+        <f>H40+3</f>
         <v>27</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -2167,25 +2457,26 @@
       <c r="C44" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="3">
-        <v>2</v>
-      </c>
+      <c r="D44" s="3"/>
       <c r="E44" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F44" s="3">
+        <v>11</v>
+      </c>
+      <c r="G44" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G44" s="3">
-        <f>G41+4</f>
+      <c r="H44" s="3">
+        <f>H41+4</f>
         <v>40</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -2195,25 +2486,26 @@
       <c r="C45" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
         <v>3</v>
       </c>
-      <c r="E45" s="3">
-        <v>11</v>
-      </c>
       <c r="F45" s="3">
+        <v>11</v>
+      </c>
+      <c r="G45" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="G45" s="3">
-        <f>G42+5</f>
+      <c r="H45" s="3">
+        <f>H42+5</f>
         <v>55</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -2223,23 +2515,24 @@
       <c r="C46" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
+      <c r="D46" s="3"/>
       <c r="E46" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F46" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
       </c>
       <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -2249,23 +2542,24 @@
       <c r="C47" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="3">
-        <v>2</v>
-      </c>
+      <c r="D47" s="3"/>
       <c r="E47" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F47" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G47" s="3">
         <v>2</v>
       </c>
       <c r="H47" s="3">
+        <v>2</v>
+      </c>
+      <c r="I47" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -2275,23 +2569,24 @@
       <c r="C48" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F48" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
       </c>
       <c r="H48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -2301,23 +2596,24 @@
       <c r="C49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="3">
-        <v>2</v>
-      </c>
+      <c r="D49" s="3"/>
       <c r="E49" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G49" s="3">
         <v>2</v>
       </c>
       <c r="H49" s="3">
+        <v>2</v>
+      </c>
+      <c r="I49" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -2327,23 +2623,24 @@
       <c r="C50" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="3">
-        <v>1</v>
-      </c>
+      <c r="D50" s="3"/>
       <c r="E50" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F50" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G50" s="3">
         <v>1</v>
       </c>
       <c r="H50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -2353,23 +2650,24 @@
       <c r="C51" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="3">
-        <v>2</v>
-      </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G51" s="3">
         <v>2</v>
       </c>
       <c r="H51" s="3">
+        <v>2</v>
+      </c>
+      <c r="I51" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -2379,23 +2677,24 @@
       <c r="C52" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F52" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
       </c>
       <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -2405,23 +2704,24 @@
       <c r="C53" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="3">
-        <v>2</v>
-      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F53" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G53" s="3">
         <v>2</v>
       </c>
       <c r="H53" s="3">
+        <v>2</v>
+      </c>
+      <c r="I53" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -2431,23 +2731,24 @@
       <c r="C54" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
         <v>3</v>
       </c>
-      <c r="E54" s="3">
-        <v>11</v>
-      </c>
       <c r="F54" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G54" s="3">
         <v>3</v>
       </c>
       <c r="H54" s="3">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -2457,23 +2758,24 @@
       <c r="C55" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="3">
-        <v>1</v>
-      </c>
+      <c r="D55" s="3"/>
       <c r="E55" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F55" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G55" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="3">
+        <v>2</v>
+      </c>
+      <c r="I55" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -2483,23 +2785,24 @@
       <c r="C56" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="3">
-        <v>2</v>
-      </c>
+      <c r="D56" s="3"/>
       <c r="E56" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F56" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G56" s="3">
+        <v>2</v>
+      </c>
+      <c r="H56" s="3">
         <v>3</v>
       </c>
-      <c r="H56" s="3">
+      <c r="I56" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -2509,23 +2812,24 @@
       <c r="C57" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
         <v>3</v>
       </c>
-      <c r="E57" s="3">
-        <v>11</v>
-      </c>
       <c r="F57" s="3">
+        <v>11</v>
+      </c>
+      <c r="G57" s="3">
         <v>3</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -2535,23 +2839,24 @@
       <c r="C58" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F58" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -2561,23 +2866,24 @@
       <c r="C59" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="3">
-        <v>2</v>
-      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F59" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G59" s="3">
+        <v>2</v>
+      </c>
+      <c r="H59" s="3">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -2587,23 +2893,24 @@
       <c r="C60" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3">
         <v>3</v>
       </c>
-      <c r="E60" s="3">
-        <v>11</v>
-      </c>
       <c r="F60" s="3">
+        <v>11</v>
+      </c>
+      <c r="G60" s="3">
         <v>3</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -2613,23 +2920,24 @@
       <c r="C61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
+      <c r="D61" s="3"/>
       <c r="E61" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F61" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3">
         <v>3</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -2639,23 +2947,24 @@
       <c r="C62" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="3">
-        <v>2</v>
-      </c>
+      <c r="D62" s="3"/>
       <c r="E62" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F62" s="3">
+        <v>11</v>
+      </c>
+      <c r="G62" s="3">
         <v>5</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -2665,23 +2974,24 @@
       <c r="C63" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3">
         <v>3</v>
       </c>
-      <c r="E63" s="3">
-        <v>11</v>
-      </c>
       <c r="F63" s="3">
+        <v>11</v>
+      </c>
+      <c r="G63" s="3">
         <v>10</v>
       </c>
-      <c r="G63" s="3">
+      <c r="H63" s="3">
         <v>15</v>
       </c>
-      <c r="H63" s="3">
+      <c r="I63" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -2691,25 +3001,26 @@
       <c r="C64" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="3">
-        <v>1</v>
-      </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" ref="F64:F87" si="1">F61+2</f>
+        <v>11</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" ref="G64:G87" si="1">G61+2</f>
         <v>3</v>
       </c>
-      <c r="G64" s="3">
-        <f>G61+3</f>
+      <c r="H64" s="3">
+        <f>H61+3</f>
         <v>6</v>
       </c>
-      <c r="H64" s="3">
+      <c r="I64" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -2719,25 +3030,26 @@
       <c r="C65" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="3">
-        <v>2</v>
-      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F65" s="3">
+        <v>11</v>
+      </c>
+      <c r="G65" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G65" s="3">
-        <f>G62+4</f>
+      <c r="H65" s="3">
+        <f>H62+4</f>
         <v>12</v>
       </c>
-      <c r="H65" s="3">
+      <c r="I65" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -2747,25 +3059,26 @@
       <c r="C66" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3"/>
+      <c r="E66" s="3">
         <v>3</v>
       </c>
-      <c r="E66" s="3">
-        <v>11</v>
-      </c>
       <c r="F66" s="3">
+        <v>11</v>
+      </c>
+      <c r="G66" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G66" s="3">
-        <f>G63+5</f>
+      <c r="H66" s="3">
+        <f>H63+5</f>
         <v>20</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -2775,25 +3088,26 @@
       <c r="C67" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="3">
-        <v>1</v>
-      </c>
+      <c r="D67" s="3"/>
       <c r="E67" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F67" s="3">
+        <v>11</v>
+      </c>
+      <c r="G67" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G67" s="3">
-        <f>G64+3</f>
+      <c r="H67" s="3">
+        <f>H64+3</f>
         <v>9</v>
       </c>
-      <c r="H67" s="3">
+      <c r="I67" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -2803,25 +3117,26 @@
       <c r="C68" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D68" s="3">
-        <v>2</v>
-      </c>
+      <c r="D68" s="3"/>
       <c r="E68" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F68" s="3">
+        <v>11</v>
+      </c>
+      <c r="G68" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G68" s="3">
-        <f>G65+4</f>
+      <c r="H68" s="3">
+        <f>H65+4</f>
         <v>16</v>
       </c>
-      <c r="H68" s="3">
+      <c r="I68" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -2831,25 +3146,26 @@
       <c r="C69" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="3"/>
+      <c r="E69" s="3">
         <v>3</v>
       </c>
-      <c r="E69" s="3">
-        <v>11</v>
-      </c>
       <c r="F69" s="3">
+        <v>11</v>
+      </c>
+      <c r="G69" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G69" s="3">
-        <f>G66+5</f>
+      <c r="H69" s="3">
+        <f>H66+5</f>
         <v>25</v>
       </c>
-      <c r="H69" s="3">
+      <c r="I69" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -2859,25 +3175,26 @@
       <c r="C70" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="3">
-        <v>1</v>
-      </c>
+      <c r="D70" s="3"/>
       <c r="E70" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F70" s="3">
+        <v>11</v>
+      </c>
+      <c r="G70" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G70" s="3">
-        <f>G67+3</f>
+      <c r="H70" s="3">
+        <f>H67+3</f>
         <v>12</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -2887,25 +3204,26 @@
       <c r="C71" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="3">
-        <v>2</v>
-      </c>
+      <c r="D71" s="3"/>
       <c r="E71" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F71" s="3">
+        <v>11</v>
+      </c>
+      <c r="G71" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G71" s="3">
-        <f>G68+4</f>
+      <c r="H71" s="3">
+        <f>H68+4</f>
         <v>20</v>
       </c>
-      <c r="H71" s="3">
+      <c r="I71" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -2915,25 +3233,26 @@
       <c r="C72" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3">
         <v>3</v>
       </c>
-      <c r="E72" s="3">
-        <v>11</v>
-      </c>
       <c r="F72" s="3">
+        <v>11</v>
+      </c>
+      <c r="G72" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G72" s="3">
-        <f>G69+5</f>
+      <c r="H72" s="3">
+        <f>H69+5</f>
         <v>30</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -2943,25 +3262,26 @@
       <c r="C73" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="3">
-        <v>1</v>
-      </c>
+      <c r="D73" s="3"/>
       <c r="E73" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F73" s="3">
+        <v>11</v>
+      </c>
+      <c r="G73" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G73" s="3">
-        <f>G70+3</f>
+      <c r="H73" s="3">
+        <f>H70+3</f>
         <v>15</v>
       </c>
-      <c r="H73" s="3">
+      <c r="I73" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -2971,25 +3291,26 @@
       <c r="C74" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="3">
-        <v>2</v>
-      </c>
+      <c r="D74" s="3"/>
       <c r="E74" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F74" s="3">
+        <v>11</v>
+      </c>
+      <c r="G74" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G74" s="3">
-        <f>G71+4</f>
+      <c r="H74" s="3">
+        <f>H71+4</f>
         <v>24</v>
       </c>
-      <c r="H74" s="3">
+      <c r="I74" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -2999,25 +3320,26 @@
       <c r="C75" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="3"/>
+      <c r="E75" s="3">
         <v>3</v>
       </c>
-      <c r="E75" s="3">
-        <v>11</v>
-      </c>
       <c r="F75" s="3">
+        <v>11</v>
+      </c>
+      <c r="G75" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="G75" s="3">
-        <f>G72+5</f>
+      <c r="H75" s="3">
+        <f>H72+5</f>
         <v>35</v>
       </c>
-      <c r="H75" s="3">
+      <c r="I75" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -3027,25 +3349,26 @@
       <c r="C76" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D76" s="3">
-        <v>1</v>
-      </c>
+      <c r="D76" s="3"/>
       <c r="E76" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F76" s="3">
+        <v>11</v>
+      </c>
+      <c r="G76" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G76" s="3">
-        <f>G73+3</f>
+      <c r="H76" s="3">
+        <f>H73+3</f>
         <v>18</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -3055,25 +3378,26 @@
       <c r="C77" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="3">
-        <v>2</v>
-      </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F77" s="3">
+        <v>11</v>
+      </c>
+      <c r="G77" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G77" s="3">
-        <f>G74+4</f>
+      <c r="H77" s="3">
+        <f>H74+4</f>
         <v>28</v>
       </c>
-      <c r="H77" s="3">
+      <c r="I77" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -3083,25 +3407,26 @@
       <c r="C78" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="3"/>
+      <c r="E78" s="3">
         <v>3</v>
       </c>
-      <c r="E78" s="3">
-        <v>11</v>
-      </c>
       <c r="F78" s="3">
+        <v>11</v>
+      </c>
+      <c r="G78" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G78" s="3">
-        <f>G75+5</f>
+      <c r="H78" s="3">
+        <f>H75+5</f>
         <v>40</v>
       </c>
-      <c r="H78" s="3">
+      <c r="I78" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -3111,25 +3436,26 @@
       <c r="C79" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D79" s="3">
-        <v>1</v>
-      </c>
+      <c r="D79" s="3"/>
       <c r="E79" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F79" s="3">
+        <v>11</v>
+      </c>
+      <c r="G79" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G79" s="3">
-        <f>G76+3</f>
+      <c r="H79" s="3">
+        <f>H76+3</f>
         <v>21</v>
       </c>
-      <c r="H79" s="3">
+      <c r="I79" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -3139,25 +3465,26 @@
       <c r="C80" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D80" s="3">
-        <v>2</v>
-      </c>
+      <c r="D80" s="3"/>
       <c r="E80" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F80" s="3">
+        <v>11</v>
+      </c>
+      <c r="G80" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G80" s="3">
-        <f>G77+4</f>
+      <c r="H80" s="3">
+        <f>H77+4</f>
         <v>32</v>
       </c>
-      <c r="H80" s="3">
+      <c r="I80" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -3167,25 +3494,26 @@
       <c r="C81" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3"/>
+      <c r="E81" s="3">
         <v>3</v>
       </c>
-      <c r="E81" s="3">
-        <v>11</v>
-      </c>
       <c r="F81" s="3">
+        <v>11</v>
+      </c>
+      <c r="G81" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="G81" s="3">
-        <f>G78+5</f>
+      <c r="H81" s="3">
+        <f>H78+5</f>
         <v>45</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -3195,25 +3523,26 @@
       <c r="C82" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D82" s="3">
-        <v>1</v>
-      </c>
+      <c r="D82" s="3"/>
       <c r="E82" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F82" s="3">
+        <v>11</v>
+      </c>
+      <c r="G82" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G82" s="3">
-        <f>G79+3</f>
+      <c r="H82" s="3">
+        <f>H79+3</f>
         <v>24</v>
       </c>
-      <c r="H82" s="3">
+      <c r="I82" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -3223,25 +3552,26 @@
       <c r="C83" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D83" s="3">
-        <v>2</v>
-      </c>
+      <c r="D83" s="3"/>
       <c r="E83" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F83" s="3">
+        <v>11</v>
+      </c>
+      <c r="G83" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="G83" s="3">
-        <f>G80+4</f>
+      <c r="H83" s="3">
+        <f>H80+4</f>
         <v>36</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -3251,25 +3581,26 @@
       <c r="C84" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="3"/>
+      <c r="E84" s="3">
         <v>3</v>
       </c>
-      <c r="E84" s="3">
-        <v>11</v>
-      </c>
       <c r="F84" s="3">
+        <v>11</v>
+      </c>
+      <c r="G84" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="G84" s="3">
-        <f>G81+5</f>
+      <c r="H84" s="3">
+        <f>H81+5</f>
         <v>50</v>
       </c>
-      <c r="H84" s="3">
+      <c r="I84" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -3279,25 +3610,26 @@
       <c r="C85" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D85" s="3">
-        <v>1</v>
-      </c>
+      <c r="D85" s="3"/>
       <c r="E85" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F85" s="3">
+        <v>11</v>
+      </c>
+      <c r="G85" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G85" s="3">
-        <f>G82+3</f>
+      <c r="H85" s="3">
+        <f>H82+3</f>
         <v>27</v>
       </c>
-      <c r="H85" s="3">
+      <c r="I85" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -3307,25 +3639,26 @@
       <c r="C86" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="3">
-        <v>2</v>
-      </c>
+      <c r="D86" s="3"/>
       <c r="E86" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F86" s="3">
+        <v>11</v>
+      </c>
+      <c r="G86" s="3">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G86" s="3">
-        <f>G83+4</f>
+      <c r="H86" s="3">
+        <f>H83+4</f>
         <v>40</v>
       </c>
-      <c r="H86" s="3">
+      <c r="I86" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -3335,25 +3668,26 @@
       <c r="C87" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="3"/>
+      <c r="E87" s="3">
         <v>3</v>
       </c>
-      <c r="E87" s="3">
-        <v>11</v>
-      </c>
       <c r="F87" s="3">
+        <v>11</v>
+      </c>
+      <c r="G87" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="G87" s="3">
-        <f>G84+5</f>
+      <c r="H87" s="3">
+        <f>H84+5</f>
         <v>55</v>
       </c>
-      <c r="H87" s="3">
+      <c r="I87" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -3363,23 +3697,24 @@
       <c r="C88" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="3">
-        <v>1</v>
-      </c>
+      <c r="D88" s="3"/>
       <c r="E88" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F88" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
       </c>
       <c r="H88" s="3">
+        <v>1</v>
+      </c>
+      <c r="I88" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -3389,23 +3724,24 @@
       <c r="C89" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D89" s="3">
-        <v>2</v>
-      </c>
+      <c r="D89" s="3"/>
       <c r="E89" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F89" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G89" s="3">
         <v>2</v>
       </c>
       <c r="H89" s="3">
+        <v>2</v>
+      </c>
+      <c r="I89" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -3415,23 +3751,24 @@
       <c r="C90" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D90" s="3">
-        <v>1</v>
-      </c>
+      <c r="D90" s="3"/>
       <c r="E90" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F90" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
       </c>
       <c r="H90" s="3">
+        <v>1</v>
+      </c>
+      <c r="I90" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -3441,23 +3778,24 @@
       <c r="C91" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D91" s="3">
-        <v>2</v>
-      </c>
+      <c r="D91" s="3"/>
       <c r="E91" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F91" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G91" s="3">
         <v>2</v>
       </c>
       <c r="H91" s="3">
+        <v>2</v>
+      </c>
+      <c r="I91" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -3467,23 +3805,24 @@
       <c r="C92" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D92" s="3">
-        <v>1</v>
-      </c>
+      <c r="D92" s="3"/>
       <c r="E92" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F92" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
       </c>
       <c r="H92" s="3">
+        <v>1</v>
+      </c>
+      <c r="I92" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -3493,23 +3832,24 @@
       <c r="C93" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D93" s="3">
-        <v>2</v>
-      </c>
+      <c r="D93" s="3"/>
       <c r="E93" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F93" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G93" s="3">
         <v>2</v>
       </c>
       <c r="H93" s="3">
+        <v>2</v>
+      </c>
+      <c r="I93" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -3519,23 +3859,24 @@
       <c r="C94" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D94" s="3">
-        <v>1</v>
-      </c>
+      <c r="D94" s="3"/>
       <c r="E94" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F94" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
       </c>
       <c r="H94" s="3">
+        <v>1</v>
+      </c>
+      <c r="I94" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -3545,23 +3886,24 @@
       <c r="C95" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D95" s="3">
-        <v>2</v>
-      </c>
+      <c r="D95" s="3"/>
       <c r="E95" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F95" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G95" s="3">
         <v>2</v>
       </c>
       <c r="H95" s="3">
+        <v>2</v>
+      </c>
+      <c r="I95" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -3571,23 +3913,24 @@
       <c r="C96" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="3"/>
+      <c r="E96" s="3">
         <v>3</v>
       </c>
-      <c r="E96" s="3">
-        <v>11</v>
-      </c>
       <c r="F96" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G96" s="3">
         <v>3</v>
       </c>
       <c r="H96" s="3">
+        <v>3</v>
+      </c>
+      <c r="I96" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -3597,23 +3940,24 @@
       <c r="C97" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D97" s="3">
-        <v>1</v>
-      </c>
+      <c r="D97" s="3"/>
       <c r="E97" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F97" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G97" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" s="3">
+        <v>2</v>
+      </c>
+      <c r="I97" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>95</v>
       </c>
@@ -3623,23 +3967,24 @@
       <c r="C98" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D98" s="3">
-        <v>2</v>
-      </c>
+      <c r="D98" s="3"/>
       <c r="E98" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F98" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G98" s="3">
+        <v>2</v>
+      </c>
+      <c r="H98" s="3">
         <v>3</v>
       </c>
-      <c r="H98" s="3">
+      <c r="I98" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -3649,23 +3994,24 @@
       <c r="C99" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="3"/>
+      <c r="E99" s="3">
         <v>3</v>
       </c>
-      <c r="E99" s="3">
-        <v>11</v>
-      </c>
       <c r="F99" s="3">
+        <v>11</v>
+      </c>
+      <c r="G99" s="3">
         <v>3</v>
       </c>
-      <c r="G99" s="3">
+      <c r="H99" s="3">
         <v>4</v>
       </c>
-      <c r="H99" s="3">
+      <c r="I99" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -3675,23 +4021,24 @@
       <c r="C100" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D100" s="3">
-        <v>1</v>
-      </c>
+      <c r="D100" s="3"/>
       <c r="E100" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F100" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G100" s="3">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -3701,23 +4048,24 @@
       <c r="C101" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D101" s="3">
-        <v>2</v>
-      </c>
+      <c r="D101" s="3"/>
       <c r="E101" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F101" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G101" s="3">
+        <v>2</v>
+      </c>
+      <c r="H101" s="3">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -3727,23 +4075,24 @@
       <c r="C102" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3"/>
+      <c r="E102" s="3">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>11</v>
-      </c>
       <c r="F102" s="3">
+        <v>11</v>
+      </c>
+      <c r="G102" s="3">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -3753,23 +4102,24 @@
       <c r="C103" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D103" s="3">
-        <v>1</v>
-      </c>
+      <c r="D103" s="3"/>
       <c r="E103" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F103" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G103" s="3">
+        <v>1</v>
+      </c>
+      <c r="H103" s="3">
         <v>3</v>
       </c>
-      <c r="H103" s="3">
+      <c r="I103" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -3779,23 +4129,24 @@
       <c r="C104" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D104" s="3">
-        <v>2</v>
-      </c>
+      <c r="D104" s="3"/>
       <c r="E104" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F104" s="3">
+        <v>11</v>
+      </c>
+      <c r="G104" s="3">
         <v>5</v>
       </c>
-      <c r="G104" s="3">
+      <c r="H104" s="3">
         <v>8</v>
       </c>
-      <c r="H104" s="3">
+      <c r="I104" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -3805,23 +4156,24 @@
       <c r="C105" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="3"/>
+      <c r="E105" s="3">
         <v>3</v>
       </c>
-      <c r="E105" s="3">
-        <v>11</v>
-      </c>
       <c r="F105" s="3">
+        <v>11</v>
+      </c>
+      <c r="G105" s="3">
         <v>10</v>
       </c>
-      <c r="G105" s="3">
+      <c r="H105" s="3">
         <v>15</v>
       </c>
-      <c r="H105" s="3">
+      <c r="I105" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -3831,25 +4183,26 @@
       <c r="C106" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D106" s="3">
-        <v>1</v>
-      </c>
+      <c r="D106" s="3"/>
       <c r="E106" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F106" s="3">
-        <f t="shared" ref="F106:F129" si="2">F103+2</f>
+        <v>11</v>
+      </c>
+      <c r="G106" s="3">
+        <f t="shared" ref="G106:G129" si="2">G103+2</f>
         <v>3</v>
       </c>
-      <c r="G106" s="3">
-        <f>G103+3</f>
+      <c r="H106" s="3">
+        <f>H103+3</f>
         <v>6</v>
       </c>
-      <c r="H106" s="3">
+      <c r="I106" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -3859,25 +4212,26 @@
       <c r="C107" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D107" s="3">
-        <v>2</v>
-      </c>
+      <c r="D107" s="3"/>
       <c r="E107" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F107" s="3">
+        <v>11</v>
+      </c>
+      <c r="G107" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G107" s="3">
-        <f>G104+4</f>
+      <c r="H107" s="3">
+        <f>H104+4</f>
         <v>12</v>
       </c>
-      <c r="H107" s="3">
+      <c r="I107" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -3887,25 +4241,26 @@
       <c r="C108" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="3"/>
+      <c r="E108" s="3">
         <v>3</v>
       </c>
-      <c r="E108" s="3">
-        <v>11</v>
-      </c>
       <c r="F108" s="3">
+        <v>11</v>
+      </c>
+      <c r="G108" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G108" s="3">
-        <f>G105+5</f>
+      <c r="H108" s="3">
+        <f>H105+5</f>
         <v>20</v>
       </c>
-      <c r="H108" s="3">
+      <c r="I108" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -3915,25 +4270,26 @@
       <c r="C109" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D109" s="3">
-        <v>1</v>
-      </c>
+      <c r="D109" s="3"/>
       <c r="E109" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F109" s="3">
+        <v>11</v>
+      </c>
+      <c r="G109" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G109" s="3">
-        <f>G106+3</f>
+      <c r="H109" s="3">
+        <f>H106+3</f>
         <v>9</v>
       </c>
-      <c r="H109" s="3">
+      <c r="I109" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -3943,25 +4299,26 @@
       <c r="C110" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D110" s="3">
-        <v>2</v>
-      </c>
+      <c r="D110" s="3"/>
       <c r="E110" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F110" s="3">
+        <v>11</v>
+      </c>
+      <c r="G110" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G110" s="3">
-        <f>G107+4</f>
+      <c r="H110" s="3">
+        <f>H107+4</f>
         <v>16</v>
       </c>
-      <c r="H110" s="3">
+      <c r="I110" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -3971,25 +4328,26 @@
       <c r="C111" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="3"/>
+      <c r="E111" s="3">
         <v>3</v>
       </c>
-      <c r="E111" s="3">
-        <v>11</v>
-      </c>
       <c r="F111" s="3">
+        <v>11</v>
+      </c>
+      <c r="G111" s="3">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="G111" s="3">
-        <f>G108+5</f>
+      <c r="H111" s="3">
+        <f>H108+5</f>
         <v>25</v>
       </c>
-      <c r="H111" s="3">
+      <c r="I111" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -3999,25 +4357,26 @@
       <c r="C112" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D112" s="3">
-        <v>1</v>
-      </c>
+      <c r="D112" s="3"/>
       <c r="E112" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F112" s="3">
+        <v>11</v>
+      </c>
+      <c r="G112" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G112" s="3">
-        <f>G109+3</f>
+      <c r="H112" s="3">
+        <f>H109+3</f>
         <v>12</v>
       </c>
-      <c r="H112" s="3">
+      <c r="I112" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -4027,25 +4386,26 @@
       <c r="C113" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D113" s="3">
-        <v>2</v>
-      </c>
+      <c r="D113" s="3"/>
       <c r="E113" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F113" s="3">
+        <v>11</v>
+      </c>
+      <c r="G113" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="G113" s="3">
-        <f>G110+4</f>
+      <c r="H113" s="3">
+        <f>H110+4</f>
         <v>20</v>
       </c>
-      <c r="H113" s="3">
+      <c r="I113" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -4055,25 +4415,26 @@
       <c r="C114" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="3"/>
+      <c r="E114" s="3">
         <v>3</v>
       </c>
-      <c r="E114" s="3">
-        <v>11</v>
-      </c>
       <c r="F114" s="3">
+        <v>11</v>
+      </c>
+      <c r="G114" s="3">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="G114" s="3">
-        <f>G111+5</f>
+      <c r="H114" s="3">
+        <f>H111+5</f>
         <v>30</v>
       </c>
-      <c r="H114" s="3">
+      <c r="I114" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -4083,25 +4444,26 @@
       <c r="C115" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D115" s="3">
-        <v>1</v>
-      </c>
+      <c r="D115" s="3"/>
       <c r="E115" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F115" s="3">
+        <v>11</v>
+      </c>
+      <c r="G115" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G115" s="3">
-        <f>G112+3</f>
+      <c r="H115" s="3">
+        <f>H112+3</f>
         <v>15</v>
       </c>
-      <c r="H115" s="3">
+      <c r="I115" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -4111,25 +4473,26 @@
       <c r="C116" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D116" s="3">
-        <v>2</v>
-      </c>
+      <c r="D116" s="3"/>
       <c r="E116" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F116" s="3">
+        <v>11</v>
+      </c>
+      <c r="G116" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="G116" s="3">
-        <f>G113+4</f>
+      <c r="H116" s="3">
+        <f>H113+4</f>
         <v>24</v>
       </c>
-      <c r="H116" s="3">
+      <c r="I116" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -4139,25 +4502,26 @@
       <c r="C117" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="3"/>
+      <c r="E117" s="3">
         <v>3</v>
       </c>
-      <c r="E117" s="3">
-        <v>11</v>
-      </c>
       <c r="F117" s="3">
+        <v>11</v>
+      </c>
+      <c r="G117" s="3">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="G117" s="3">
-        <f>G114+5</f>
+      <c r="H117" s="3">
+        <f>H114+5</f>
         <v>35</v>
       </c>
-      <c r="H117" s="3">
+      <c r="I117" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -4167,25 +4531,26 @@
       <c r="C118" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D118" s="3">
-        <v>1</v>
-      </c>
+      <c r="D118" s="3"/>
       <c r="E118" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F118" s="3">
+        <v>11</v>
+      </c>
+      <c r="G118" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="G118" s="3">
-        <f>G115+3</f>
+      <c r="H118" s="3">
+        <f>H115+3</f>
         <v>18</v>
       </c>
-      <c r="H118" s="3">
+      <c r="I118" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -4195,25 +4560,26 @@
       <c r="C119" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D119" s="3">
-        <v>2</v>
-      </c>
+      <c r="D119" s="3"/>
       <c r="E119" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F119" s="3">
+        <v>11</v>
+      </c>
+      <c r="G119" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G119" s="3">
-        <f>G116+4</f>
+      <c r="H119" s="3">
+        <f>H116+4</f>
         <v>28</v>
       </c>
-      <c r="H119" s="3">
+      <c r="I119" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -4223,25 +4589,26 @@
       <c r="C120" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="3"/>
+      <c r="E120" s="3">
         <v>3</v>
       </c>
-      <c r="E120" s="3">
-        <v>11</v>
-      </c>
       <c r="F120" s="3">
+        <v>11</v>
+      </c>
+      <c r="G120" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G120" s="3">
-        <f>G117+5</f>
+      <c r="H120" s="3">
+        <f>H117+5</f>
         <v>40</v>
       </c>
-      <c r="H120" s="3">
+      <c r="I120" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -4251,25 +4618,26 @@
       <c r="C121" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D121" s="3">
-        <v>1</v>
-      </c>
+      <c r="D121" s="3"/>
       <c r="E121" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F121" s="3">
+        <v>11</v>
+      </c>
+      <c r="G121" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="G121" s="3">
-        <f>G118+3</f>
+      <c r="H121" s="3">
+        <f>H118+3</f>
         <v>21</v>
       </c>
-      <c r="H121" s="3">
+      <c r="I121" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -4279,25 +4647,26 @@
       <c r="C122" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D122" s="3">
-        <v>2</v>
-      </c>
+      <c r="D122" s="3"/>
       <c r="E122" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F122" s="3">
+        <v>11</v>
+      </c>
+      <c r="G122" s="3">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="G122" s="3">
-        <f>G119+4</f>
+      <c r="H122" s="3">
+        <f>H119+4</f>
         <v>32</v>
       </c>
-      <c r="H122" s="3">
+      <c r="I122" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -4307,25 +4676,26 @@
       <c r="C123" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="3"/>
+      <c r="E123" s="3">
         <v>3</v>
       </c>
-      <c r="E123" s="3">
-        <v>11</v>
-      </c>
       <c r="F123" s="3">
+        <v>11</v>
+      </c>
+      <c r="G123" s="3">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="G123" s="3">
-        <f>G120+5</f>
+      <c r="H123" s="3">
+        <f>H120+5</f>
         <v>45</v>
       </c>
-      <c r="H123" s="3">
+      <c r="I123" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -4335,25 +4705,26 @@
       <c r="C124" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D124" s="3">
-        <v>1</v>
-      </c>
+      <c r="D124" s="3"/>
       <c r="E124" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F124" s="3">
+        <v>11</v>
+      </c>
+      <c r="G124" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G124" s="3">
-        <f>G121+3</f>
+      <c r="H124" s="3">
+        <f>H121+3</f>
         <v>24</v>
       </c>
-      <c r="H124" s="3">
+      <c r="I124" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -4363,25 +4734,26 @@
       <c r="C125" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D125" s="3">
-        <v>2</v>
-      </c>
+      <c r="D125" s="3"/>
       <c r="E125" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F125" s="3">
+        <v>11</v>
+      </c>
+      <c r="G125" s="3">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="G125" s="3">
-        <f>G122+4</f>
+      <c r="H125" s="3">
+        <f>H122+4</f>
         <v>36</v>
       </c>
-      <c r="H125" s="3">
+      <c r="I125" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -4391,25 +4763,26 @@
       <c r="C126" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="3"/>
+      <c r="E126" s="3">
         <v>3</v>
       </c>
-      <c r="E126" s="3">
-        <v>11</v>
-      </c>
       <c r="F126" s="3">
+        <v>11</v>
+      </c>
+      <c r="G126" s="3">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="G126" s="3">
-        <f>G123+5</f>
+      <c r="H126" s="3">
+        <f>H123+5</f>
         <v>50</v>
       </c>
-      <c r="H126" s="3">
+      <c r="I126" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -4419,25 +4792,26 @@
       <c r="C127" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D127" s="3">
-        <v>1</v>
-      </c>
+      <c r="D127" s="3"/>
       <c r="E127" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F127" s="3">
+        <v>11</v>
+      </c>
+      <c r="G127" s="3">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="G127" s="3">
-        <f>G124+3</f>
+      <c r="H127" s="3">
+        <f>H124+3</f>
         <v>27</v>
       </c>
-      <c r="H127" s="3">
+      <c r="I127" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -4447,25 +4821,26 @@
       <c r="C128" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D128" s="3">
-        <v>2</v>
-      </c>
+      <c r="D128" s="3"/>
       <c r="E128" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F128" s="3">
+        <v>11</v>
+      </c>
+      <c r="G128" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="G128" s="3">
-        <f>G125+4</f>
+      <c r="H128" s="3">
+        <f>H125+4</f>
         <v>40</v>
       </c>
-      <c r="H128" s="3">
+      <c r="I128" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -4475,22 +4850,1908 @@
       <c r="C129" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="3"/>
+      <c r="E129" s="3">
         <v>3</v>
       </c>
-      <c r="E129" s="3">
-        <v>11</v>
-      </c>
       <c r="F129" s="3">
+        <v>11</v>
+      </c>
+      <c r="G129" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="G129" s="3">
-        <f>G126+5</f>
+      <c r="H129" s="3">
+        <f>H126+5</f>
         <v>55</v>
       </c>
-      <c r="H129" s="3">
+      <c r="I129" s="3">
         <v>3000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="6">
+        <v>127</v>
+      </c>
+      <c r="B130" s="7">
+        <v>101</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E130" s="7">
+        <v>1</v>
+      </c>
+      <c r="F130" s="6">
+        <v>10001</v>
+      </c>
+      <c r="G130" s="8">
+        <v>1</v>
+      </c>
+      <c r="H130" s="8">
+        <v>1</v>
+      </c>
+      <c r="I130" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
+        <v>128</v>
+      </c>
+      <c r="B131" s="7">
+        <v>101</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E131" s="7">
+        <v>2</v>
+      </c>
+      <c r="F131" s="6">
+        <v>10002</v>
+      </c>
+      <c r="G131" s="8">
+        <v>1</v>
+      </c>
+      <c r="H131" s="8">
+        <v>1</v>
+      </c>
+      <c r="I131" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="6">
+        <v>129</v>
+      </c>
+      <c r="B132" s="7">
+        <v>101</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E132" s="7">
+        <v>3</v>
+      </c>
+      <c r="F132" s="6">
+        <v>10003</v>
+      </c>
+      <c r="G132" s="8">
+        <v>1</v>
+      </c>
+      <c r="H132" s="8">
+        <v>1</v>
+      </c>
+      <c r="I132" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="6">
+        <v>130</v>
+      </c>
+      <c r="B133" s="7">
+        <v>101</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E133" s="7">
+        <v>4</v>
+      </c>
+      <c r="F133" s="6">
+        <v>10004</v>
+      </c>
+      <c r="G133" s="8">
+        <v>1</v>
+      </c>
+      <c r="H133" s="8">
+        <v>1</v>
+      </c>
+      <c r="I133" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="6">
+        <v>131</v>
+      </c>
+      <c r="B134" s="7">
+        <v>101</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E134" s="7">
+        <v>5</v>
+      </c>
+      <c r="F134" s="6">
+        <v>10005</v>
+      </c>
+      <c r="G134" s="8">
+        <v>1</v>
+      </c>
+      <c r="H134" s="8">
+        <v>1</v>
+      </c>
+      <c r="I134" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="6">
+        <v>132</v>
+      </c>
+      <c r="B135" s="7">
+        <v>101</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E135" s="7">
+        <v>6</v>
+      </c>
+      <c r="F135" s="6">
+        <v>10006</v>
+      </c>
+      <c r="G135" s="8">
+        <v>1</v>
+      </c>
+      <c r="H135" s="8">
+        <v>1</v>
+      </c>
+      <c r="I135" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A136" s="6">
+        <v>133</v>
+      </c>
+      <c r="B136" s="7">
+        <v>101</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E136" s="7">
+        <v>7</v>
+      </c>
+      <c r="F136" s="6">
+        <v>10007</v>
+      </c>
+      <c r="G136" s="8">
+        <v>1</v>
+      </c>
+      <c r="H136" s="8">
+        <v>1</v>
+      </c>
+      <c r="I136" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A137" s="6">
+        <v>134</v>
+      </c>
+      <c r="B137" s="7">
+        <v>101</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E137" s="7">
+        <v>8</v>
+      </c>
+      <c r="F137" s="6">
+        <v>10008</v>
+      </c>
+      <c r="G137" s="8">
+        <v>1</v>
+      </c>
+      <c r="H137" s="8">
+        <v>1</v>
+      </c>
+      <c r="I137" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A138" s="6">
+        <v>135</v>
+      </c>
+      <c r="B138" s="7">
+        <v>101</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E138" s="7">
+        <v>9</v>
+      </c>
+      <c r="F138" s="6">
+        <v>10009</v>
+      </c>
+      <c r="G138" s="8">
+        <v>1</v>
+      </c>
+      <c r="H138" s="8">
+        <v>1</v>
+      </c>
+      <c r="I138" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="6">
+        <v>136</v>
+      </c>
+      <c r="B139" s="7">
+        <v>101</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E139" s="7">
+        <v>10</v>
+      </c>
+      <c r="F139" s="6">
+        <v>10010</v>
+      </c>
+      <c r="G139" s="8">
+        <v>1</v>
+      </c>
+      <c r="H139" s="8">
+        <v>1</v>
+      </c>
+      <c r="I139" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="6">
+        <v>137</v>
+      </c>
+      <c r="B140" s="7">
+        <v>101</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E140" s="7">
+        <v>11</v>
+      </c>
+      <c r="F140" s="6">
+        <v>10011</v>
+      </c>
+      <c r="G140" s="8">
+        <v>1</v>
+      </c>
+      <c r="H140" s="8">
+        <v>1</v>
+      </c>
+      <c r="I140" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="6">
+        <v>138</v>
+      </c>
+      <c r="B141" s="7">
+        <v>101</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E141" s="7">
+        <v>12</v>
+      </c>
+      <c r="F141" s="6">
+        <v>10012</v>
+      </c>
+      <c r="G141" s="8">
+        <v>1</v>
+      </c>
+      <c r="H141" s="8">
+        <v>1</v>
+      </c>
+      <c r="I141" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A142" s="6">
+        <v>139</v>
+      </c>
+      <c r="B142" s="7">
+        <v>101</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E142" s="7">
+        <v>13</v>
+      </c>
+      <c r="F142" s="6">
+        <v>10013</v>
+      </c>
+      <c r="G142" s="8">
+        <v>1</v>
+      </c>
+      <c r="H142" s="8">
+        <v>1</v>
+      </c>
+      <c r="I142" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A143" s="6">
+        <v>140</v>
+      </c>
+      <c r="B143" s="7">
+        <v>102</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E143" s="7">
+        <v>1</v>
+      </c>
+      <c r="F143" s="6">
+        <v>10101</v>
+      </c>
+      <c r="G143" s="8">
+        <v>1</v>
+      </c>
+      <c r="H143" s="8">
+        <v>1</v>
+      </c>
+      <c r="I143" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A144" s="6">
+        <v>141</v>
+      </c>
+      <c r="B144" s="7">
+        <v>102</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E144" s="7">
+        <v>2</v>
+      </c>
+      <c r="F144" s="6">
+        <v>10102</v>
+      </c>
+      <c r="G144" s="8">
+        <v>1</v>
+      </c>
+      <c r="H144" s="8">
+        <v>1</v>
+      </c>
+      <c r="I144" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="6">
+        <v>142</v>
+      </c>
+      <c r="B145" s="7">
+        <v>102</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E145" s="7">
+        <v>3</v>
+      </c>
+      <c r="F145" s="6">
+        <v>10103</v>
+      </c>
+      <c r="G145" s="8">
+        <v>1</v>
+      </c>
+      <c r="H145" s="8">
+        <v>1</v>
+      </c>
+      <c r="I145" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="6">
+        <v>143</v>
+      </c>
+      <c r="B146" s="7">
+        <v>102</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E146" s="7">
+        <v>4</v>
+      </c>
+      <c r="F146" s="6">
+        <v>10104</v>
+      </c>
+      <c r="G146" s="8">
+        <v>1</v>
+      </c>
+      <c r="H146" s="8">
+        <v>1</v>
+      </c>
+      <c r="I146" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="6">
+        <v>144</v>
+      </c>
+      <c r="B147" s="7">
+        <v>102</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E147" s="7">
+        <v>5</v>
+      </c>
+      <c r="F147" s="6">
+        <v>10105</v>
+      </c>
+      <c r="G147" s="8">
+        <v>1</v>
+      </c>
+      <c r="H147" s="8">
+        <v>1</v>
+      </c>
+      <c r="I147" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="6">
+        <v>145</v>
+      </c>
+      <c r="B148" s="7">
+        <v>102</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E148" s="7">
+        <v>6</v>
+      </c>
+      <c r="F148" s="6">
+        <v>10106</v>
+      </c>
+      <c r="G148" s="8">
+        <v>1</v>
+      </c>
+      <c r="H148" s="8">
+        <v>1</v>
+      </c>
+      <c r="I148" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="6">
+        <v>146</v>
+      </c>
+      <c r="B149" s="7">
+        <v>102</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E149" s="7">
+        <v>7</v>
+      </c>
+      <c r="F149" s="6">
+        <v>10107</v>
+      </c>
+      <c r="G149" s="8">
+        <v>1</v>
+      </c>
+      <c r="H149" s="8">
+        <v>1</v>
+      </c>
+      <c r="I149" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="6">
+        <v>147</v>
+      </c>
+      <c r="B150" s="7">
+        <v>102</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E150" s="7">
+        <v>8</v>
+      </c>
+      <c r="F150" s="6">
+        <v>10108</v>
+      </c>
+      <c r="G150" s="8">
+        <v>1</v>
+      </c>
+      <c r="H150" s="8">
+        <v>1</v>
+      </c>
+      <c r="I150" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="6">
+        <v>148</v>
+      </c>
+      <c r="B151" s="7">
+        <v>102</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E151" s="7">
+        <v>9</v>
+      </c>
+      <c r="F151" s="6">
+        <v>10109</v>
+      </c>
+      <c r="G151" s="8">
+        <v>1</v>
+      </c>
+      <c r="H151" s="8">
+        <v>1</v>
+      </c>
+      <c r="I151" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="6">
+        <v>149</v>
+      </c>
+      <c r="B152" s="7">
+        <v>102</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E152" s="7">
+        <v>10</v>
+      </c>
+      <c r="F152" s="6">
+        <v>10110</v>
+      </c>
+      <c r="G152" s="8">
+        <v>1</v>
+      </c>
+      <c r="H152" s="8">
+        <v>1</v>
+      </c>
+      <c r="I152" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="6">
+        <v>150</v>
+      </c>
+      <c r="B153" s="7">
+        <v>102</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E153" s="7">
+        <v>11</v>
+      </c>
+      <c r="F153" s="6">
+        <v>10111</v>
+      </c>
+      <c r="G153" s="8">
+        <v>1</v>
+      </c>
+      <c r="H153" s="8">
+        <v>1</v>
+      </c>
+      <c r="I153" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="6">
+        <v>151</v>
+      </c>
+      <c r="B154" s="7">
+        <v>102</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E154" s="7">
+        <v>12</v>
+      </c>
+      <c r="F154" s="6">
+        <v>10112</v>
+      </c>
+      <c r="G154" s="8">
+        <v>1</v>
+      </c>
+      <c r="H154" s="8">
+        <v>1</v>
+      </c>
+      <c r="I154" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A155" s="6">
+        <v>152</v>
+      </c>
+      <c r="B155" s="7">
+        <v>102</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E155" s="7">
+        <v>13</v>
+      </c>
+      <c r="F155" s="6">
+        <v>10113</v>
+      </c>
+      <c r="G155" s="8">
+        <v>1</v>
+      </c>
+      <c r="H155" s="8">
+        <v>1</v>
+      </c>
+      <c r="I155" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A156" s="6">
+        <v>153</v>
+      </c>
+      <c r="B156" s="7">
+        <v>103</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E156" s="7">
+        <v>1</v>
+      </c>
+      <c r="F156" s="6">
+        <v>10201</v>
+      </c>
+      <c r="G156" s="8">
+        <v>1</v>
+      </c>
+      <c r="H156" s="8">
+        <v>1</v>
+      </c>
+      <c r="I156" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A157" s="6">
+        <v>154</v>
+      </c>
+      <c r="B157" s="7">
+        <v>103</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E157" s="7">
+        <v>2</v>
+      </c>
+      <c r="F157" s="6">
+        <v>10202</v>
+      </c>
+      <c r="G157" s="8">
+        <v>1</v>
+      </c>
+      <c r="H157" s="8">
+        <v>1</v>
+      </c>
+      <c r="I157" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A158" s="6">
+        <v>155</v>
+      </c>
+      <c r="B158" s="7">
+        <v>103</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E158" s="7">
+        <v>3</v>
+      </c>
+      <c r="F158" s="6">
+        <v>10203</v>
+      </c>
+      <c r="G158" s="8">
+        <v>1</v>
+      </c>
+      <c r="H158" s="8">
+        <v>1</v>
+      </c>
+      <c r="I158" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A159" s="6">
+        <v>156</v>
+      </c>
+      <c r="B159" s="7">
+        <v>103</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E159" s="7">
+        <v>4</v>
+      </c>
+      <c r="F159" s="6">
+        <v>10204</v>
+      </c>
+      <c r="G159" s="8">
+        <v>1</v>
+      </c>
+      <c r="H159" s="8">
+        <v>1</v>
+      </c>
+      <c r="I159" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A160" s="6">
+        <v>157</v>
+      </c>
+      <c r="B160" s="7">
+        <v>103</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E160" s="7">
+        <v>5</v>
+      </c>
+      <c r="F160" s="6">
+        <v>10205</v>
+      </c>
+      <c r="G160" s="8">
+        <v>1</v>
+      </c>
+      <c r="H160" s="8">
+        <v>1</v>
+      </c>
+      <c r="I160" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="6">
+        <v>158</v>
+      </c>
+      <c r="B161" s="7">
+        <v>103</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E161" s="7">
+        <v>6</v>
+      </c>
+      <c r="F161" s="6">
+        <v>10206</v>
+      </c>
+      <c r="G161" s="8">
+        <v>1</v>
+      </c>
+      <c r="H161" s="8">
+        <v>1</v>
+      </c>
+      <c r="I161" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="6">
+        <v>159</v>
+      </c>
+      <c r="B162" s="7">
+        <v>103</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E162" s="7">
+        <v>7</v>
+      </c>
+      <c r="F162" s="6">
+        <v>10207</v>
+      </c>
+      <c r="G162" s="8">
+        <v>1</v>
+      </c>
+      <c r="H162" s="8">
+        <v>1</v>
+      </c>
+      <c r="I162" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="6">
+        <v>160</v>
+      </c>
+      <c r="B163" s="7">
+        <v>103</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E163" s="7">
+        <v>8</v>
+      </c>
+      <c r="F163" s="6">
+        <v>10208</v>
+      </c>
+      <c r="G163" s="8">
+        <v>1</v>
+      </c>
+      <c r="H163" s="8">
+        <v>1</v>
+      </c>
+      <c r="I163" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="6">
+        <v>161</v>
+      </c>
+      <c r="B164" s="7">
+        <v>103</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E164" s="7">
+        <v>9</v>
+      </c>
+      <c r="F164" s="6">
+        <v>10209</v>
+      </c>
+      <c r="G164" s="8">
+        <v>1</v>
+      </c>
+      <c r="H164" s="8">
+        <v>1</v>
+      </c>
+      <c r="I164" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="6">
+        <v>162</v>
+      </c>
+      <c r="B165" s="7">
+        <v>103</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E165" s="7">
+        <v>10</v>
+      </c>
+      <c r="F165" s="6">
+        <v>10210</v>
+      </c>
+      <c r="G165" s="8">
+        <v>1</v>
+      </c>
+      <c r="H165" s="8">
+        <v>1</v>
+      </c>
+      <c r="I165" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="6">
+        <v>163</v>
+      </c>
+      <c r="B166" s="7">
+        <v>103</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E166" s="7">
+        <v>11</v>
+      </c>
+      <c r="F166" s="6">
+        <v>10211</v>
+      </c>
+      <c r="G166" s="8">
+        <v>1</v>
+      </c>
+      <c r="H166" s="8">
+        <v>1</v>
+      </c>
+      <c r="I166" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A167" s="6">
+        <v>164</v>
+      </c>
+      <c r="B167" s="7">
+        <v>103</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E167" s="7">
+        <v>12</v>
+      </c>
+      <c r="F167" s="6">
+        <v>10212</v>
+      </c>
+      <c r="G167" s="8">
+        <v>1</v>
+      </c>
+      <c r="H167" s="8">
+        <v>1</v>
+      </c>
+      <c r="I167" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="6">
+        <v>165</v>
+      </c>
+      <c r="B168" s="7">
+        <v>103</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E168" s="7">
+        <v>13</v>
+      </c>
+      <c r="F168" s="6">
+        <v>10213</v>
+      </c>
+      <c r="G168" s="8">
+        <v>1</v>
+      </c>
+      <c r="H168" s="8">
+        <v>1</v>
+      </c>
+      <c r="I168" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A169" s="6">
+        <v>166</v>
+      </c>
+      <c r="B169" s="7">
+        <v>104</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E169" s="7">
+        <v>1</v>
+      </c>
+      <c r="F169" s="6">
+        <v>10301</v>
+      </c>
+      <c r="G169" s="8">
+        <v>1</v>
+      </c>
+      <c r="H169" s="8">
+        <v>1</v>
+      </c>
+      <c r="I169" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A170" s="6">
+        <v>167</v>
+      </c>
+      <c r="B170" s="7">
+        <v>104</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E170" s="7">
+        <v>2</v>
+      </c>
+      <c r="F170" s="6">
+        <v>10302</v>
+      </c>
+      <c r="G170" s="8">
+        <v>1</v>
+      </c>
+      <c r="H170" s="8">
+        <v>1</v>
+      </c>
+      <c r="I170" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A171" s="6">
+        <v>168</v>
+      </c>
+      <c r="B171" s="7">
+        <v>104</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E171" s="7">
+        <v>3</v>
+      </c>
+      <c r="F171" s="6">
+        <v>10303</v>
+      </c>
+      <c r="G171" s="8">
+        <v>1</v>
+      </c>
+      <c r="H171" s="8">
+        <v>1</v>
+      </c>
+      <c r="I171" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A172" s="6">
+        <v>169</v>
+      </c>
+      <c r="B172" s="7">
+        <v>104</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E172" s="7">
+        <v>4</v>
+      </c>
+      <c r="F172" s="6">
+        <v>10304</v>
+      </c>
+      <c r="G172" s="8">
+        <v>1</v>
+      </c>
+      <c r="H172" s="8">
+        <v>1</v>
+      </c>
+      <c r="I172" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A173" s="6">
+        <v>170</v>
+      </c>
+      <c r="B173" s="7">
+        <v>104</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E173" s="7">
+        <v>5</v>
+      </c>
+      <c r="F173" s="6">
+        <v>10305</v>
+      </c>
+      <c r="G173" s="8">
+        <v>1</v>
+      </c>
+      <c r="H173" s="8">
+        <v>1</v>
+      </c>
+      <c r="I173" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A174" s="6">
+        <v>171</v>
+      </c>
+      <c r="B174" s="7">
+        <v>104</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E174" s="7">
+        <v>6</v>
+      </c>
+      <c r="F174" s="6">
+        <v>10306</v>
+      </c>
+      <c r="G174" s="8">
+        <v>1</v>
+      </c>
+      <c r="H174" s="8">
+        <v>1</v>
+      </c>
+      <c r="I174" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A175" s="6">
+        <v>172</v>
+      </c>
+      <c r="B175" s="7">
+        <v>104</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E175" s="7">
+        <v>7</v>
+      </c>
+      <c r="F175" s="6">
+        <v>10307</v>
+      </c>
+      <c r="G175" s="8">
+        <v>1</v>
+      </c>
+      <c r="H175" s="8">
+        <v>1</v>
+      </c>
+      <c r="I175" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A176" s="6">
+        <v>173</v>
+      </c>
+      <c r="B176" s="7">
+        <v>104</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E176" s="7">
+        <v>8</v>
+      </c>
+      <c r="F176" s="6">
+        <v>10308</v>
+      </c>
+      <c r="G176" s="8">
+        <v>1</v>
+      </c>
+      <c r="H176" s="8">
+        <v>1</v>
+      </c>
+      <c r="I176" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A177" s="6">
+        <v>174</v>
+      </c>
+      <c r="B177" s="7">
+        <v>104</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E177" s="7">
+        <v>9</v>
+      </c>
+      <c r="F177" s="6">
+        <v>10309</v>
+      </c>
+      <c r="G177" s="8">
+        <v>1</v>
+      </c>
+      <c r="H177" s="8">
+        <v>1</v>
+      </c>
+      <c r="I177" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A178" s="6">
+        <v>175</v>
+      </c>
+      <c r="B178" s="7">
+        <v>104</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E178" s="7">
+        <v>10</v>
+      </c>
+      <c r="F178" s="6">
+        <v>10310</v>
+      </c>
+      <c r="G178" s="8">
+        <v>1</v>
+      </c>
+      <c r="H178" s="8">
+        <v>1</v>
+      </c>
+      <c r="I178" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A179" s="6">
+        <v>176</v>
+      </c>
+      <c r="B179" s="7">
+        <v>104</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E179" s="7">
+        <v>11</v>
+      </c>
+      <c r="F179" s="6">
+        <v>10311</v>
+      </c>
+      <c r="G179" s="8">
+        <v>1</v>
+      </c>
+      <c r="H179" s="8">
+        <v>1</v>
+      </c>
+      <c r="I179" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A180" s="6">
+        <v>177</v>
+      </c>
+      <c r="B180" s="7">
+        <v>104</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E180" s="7">
+        <v>12</v>
+      </c>
+      <c r="F180" s="6">
+        <v>10312</v>
+      </c>
+      <c r="G180" s="8">
+        <v>1</v>
+      </c>
+      <c r="H180" s="8">
+        <v>1</v>
+      </c>
+      <c r="I180" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A181" s="6">
+        <v>178</v>
+      </c>
+      <c r="B181" s="7">
+        <v>104</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E181" s="7">
+        <v>13</v>
+      </c>
+      <c r="F181" s="6">
+        <v>10313</v>
+      </c>
+      <c r="G181" s="8">
+        <v>1</v>
+      </c>
+      <c r="H181" s="8">
+        <v>1</v>
+      </c>
+      <c r="I181" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A182" s="6">
+        <v>179</v>
+      </c>
+      <c r="B182" s="7">
+        <v>105</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E182" s="7">
+        <v>1</v>
+      </c>
+      <c r="F182" s="6">
+        <v>10401</v>
+      </c>
+      <c r="G182" s="8">
+        <v>1</v>
+      </c>
+      <c r="H182" s="8">
+        <v>1</v>
+      </c>
+      <c r="I182" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A183" s="6">
+        <v>180</v>
+      </c>
+      <c r="B183" s="7">
+        <v>105</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E183" s="7">
+        <v>2</v>
+      </c>
+      <c r="F183" s="6">
+        <v>10402</v>
+      </c>
+      <c r="G183" s="8">
+        <v>1</v>
+      </c>
+      <c r="H183" s="8">
+        <v>1</v>
+      </c>
+      <c r="I183" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A184" s="6">
+        <v>181</v>
+      </c>
+      <c r="B184" s="7">
+        <v>105</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E184" s="7">
+        <v>3</v>
+      </c>
+      <c r="F184" s="6">
+        <v>10403</v>
+      </c>
+      <c r="G184" s="8">
+        <v>1</v>
+      </c>
+      <c r="H184" s="8">
+        <v>1</v>
+      </c>
+      <c r="I184" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A185" s="6">
+        <v>182</v>
+      </c>
+      <c r="B185" s="7">
+        <v>105</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E185" s="7">
+        <v>4</v>
+      </c>
+      <c r="F185" s="6">
+        <v>10404</v>
+      </c>
+      <c r="G185" s="8">
+        <v>1</v>
+      </c>
+      <c r="H185" s="8">
+        <v>1</v>
+      </c>
+      <c r="I185" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A186" s="6">
+        <v>183</v>
+      </c>
+      <c r="B186" s="7">
+        <v>105</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E186" s="7">
+        <v>5</v>
+      </c>
+      <c r="F186" s="6">
+        <v>10405</v>
+      </c>
+      <c r="G186" s="8">
+        <v>1</v>
+      </c>
+      <c r="H186" s="8">
+        <v>1</v>
+      </c>
+      <c r="I186" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A187" s="6">
+        <v>184</v>
+      </c>
+      <c r="B187" s="7">
+        <v>105</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E187" s="7">
+        <v>6</v>
+      </c>
+      <c r="F187" s="6">
+        <v>10406</v>
+      </c>
+      <c r="G187" s="8">
+        <v>1</v>
+      </c>
+      <c r="H187" s="8">
+        <v>1</v>
+      </c>
+      <c r="I187" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A188" s="6">
+        <v>185</v>
+      </c>
+      <c r="B188" s="7">
+        <v>105</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E188" s="7">
+        <v>7</v>
+      </c>
+      <c r="F188" s="6">
+        <v>10407</v>
+      </c>
+      <c r="G188" s="8">
+        <v>1</v>
+      </c>
+      <c r="H188" s="8">
+        <v>1</v>
+      </c>
+      <c r="I188" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A189" s="6">
+        <v>186</v>
+      </c>
+      <c r="B189" s="7">
+        <v>105</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E189" s="7">
+        <v>8</v>
+      </c>
+      <c r="F189" s="6">
+        <v>10408</v>
+      </c>
+      <c r="G189" s="8">
+        <v>1</v>
+      </c>
+      <c r="H189" s="8">
+        <v>1</v>
+      </c>
+      <c r="I189" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A190" s="6">
+        <v>187</v>
+      </c>
+      <c r="B190" s="7">
+        <v>105</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E190" s="7">
+        <v>9</v>
+      </c>
+      <c r="F190" s="6">
+        <v>10409</v>
+      </c>
+      <c r="G190" s="8">
+        <v>1</v>
+      </c>
+      <c r="H190" s="8">
+        <v>1</v>
+      </c>
+      <c r="I190" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A191" s="6">
+        <v>188</v>
+      </c>
+      <c r="B191" s="7">
+        <v>105</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E191" s="7">
+        <v>10</v>
+      </c>
+      <c r="F191" s="6">
+        <v>10410</v>
+      </c>
+      <c r="G191" s="8">
+        <v>1</v>
+      </c>
+      <c r="H191" s="8">
+        <v>1</v>
+      </c>
+      <c r="I191" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A192" s="6">
+        <v>189</v>
+      </c>
+      <c r="B192" s="7">
+        <v>105</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E192" s="7">
+        <v>11</v>
+      </c>
+      <c r="F192" s="6">
+        <v>10411</v>
+      </c>
+      <c r="G192" s="8">
+        <v>1</v>
+      </c>
+      <c r="H192" s="8">
+        <v>1</v>
+      </c>
+      <c r="I192" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A193" s="6">
+        <v>190</v>
+      </c>
+      <c r="B193" s="7">
+        <v>105</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E193" s="7">
+        <v>12</v>
+      </c>
+      <c r="F193" s="6">
+        <v>10412</v>
+      </c>
+      <c r="G193" s="8">
+        <v>1</v>
+      </c>
+      <c r="H193" s="8">
+        <v>1</v>
+      </c>
+      <c r="I193" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A194" s="6">
+        <v>191</v>
+      </c>
+      <c r="B194" s="7">
+        <v>105</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E194" s="7">
+        <v>13</v>
+      </c>
+      <c r="F194" s="6">
+        <v>10413</v>
+      </c>
+      <c r="G194" s="8">
+        <v>1</v>
+      </c>
+      <c r="H194" s="8">
+        <v>1</v>
+      </c>
+      <c r="I194" s="7">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -4502,10 +6763,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FD70F-D7F6-4B87-B905-1A30142832F7}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:L14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4513,6 +6774,11 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="13.25" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="15" max="15" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -5033,14 +7299,69 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="A48" s="6">
         <v>45</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="6">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>101</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="7">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>102</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="7">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>103</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="7">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>104</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="7">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>105</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="7">
+        <v>13000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/drop.掉落.xlsx
+++ b/Excel/drop.掉落.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F18123B-8304-4FFB-B80F-70793745D31C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97BD1D3-6E09-4E2B-BE9E-22C2403602B9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="drop" sheetId="26" r:id="rId2"/>
-    <sheet name="dropGroup" sheetId="29" r:id="rId3"/>
+    <sheet name="dropGroup" sheetId="29" r:id="rId2"/>
+    <sheet name="drop" sheetId="26" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="247">
   <si>
     <t>sheet名</t>
   </si>
@@ -578,6 +578,292 @@
   </si>
   <si>
     <t>5级晶片13个（抽奖奖池）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001怪1级掉落</t>
+  </si>
+  <si>
+    <t>100001怪2级掉落</t>
+  </si>
+  <si>
+    <t>100002怪1级掉落</t>
+  </si>
+  <si>
+    <t>100003怪1级掉落</t>
+  </si>
+  <si>
+    <t>1级晶片奖池</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级晶片奖池</t>
+  </si>
+  <si>
+    <t>3级晶片奖池</t>
+  </si>
+  <si>
+    <t>4级晶片奖池</t>
+  </si>
+  <si>
+    <t>5级晶片奖池</t>
+  </si>
+  <si>
+    <t>火力装置S1</t>
+  </si>
+  <si>
+    <t>装甲附甲S1</t>
+  </si>
+  <si>
+    <t>能量线圈S1</t>
+  </si>
+  <si>
+    <t>电压附甲S1</t>
+  </si>
+  <si>
+    <t>磁力稳定装置S1</t>
+  </si>
+  <si>
+    <t>护盾阵列S1</t>
+  </si>
+  <si>
+    <t>电磁增强装置S1</t>
+  </si>
+  <si>
+    <t>索敌增强装置S1</t>
+  </si>
+  <si>
+    <t>火力装置S2</t>
+  </si>
+  <si>
+    <t>装甲附甲S2</t>
+  </si>
+  <si>
+    <t>能量线圈S2</t>
+  </si>
+  <si>
+    <t>电压附甲S2</t>
+  </si>
+  <si>
+    <t>磁力稳定装置S2</t>
+  </si>
+  <si>
+    <t>护盾阵列S2</t>
+  </si>
+  <si>
+    <t>电磁增强装置S2</t>
+  </si>
+  <si>
+    <t>索敌增强装置S2</t>
+  </si>
+  <si>
+    <t>火力装置S3</t>
+  </si>
+  <si>
+    <t>装甲附甲S3</t>
+  </si>
+  <si>
+    <t>能量线圈S3</t>
+  </si>
+  <si>
+    <t>电压附甲S3</t>
+  </si>
+  <si>
+    <t>磁力稳定装置S3</t>
+  </si>
+  <si>
+    <t>护盾阵列S3</t>
+  </si>
+  <si>
+    <t>电磁增强装置S3</t>
+  </si>
+  <si>
+    <t>索敌增强装置S3</t>
+  </si>
+  <si>
+    <t>概率粗拍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>掉落1~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3阶装备</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S1</t>
+  </si>
+  <si>
+    <t>头盔S1</t>
+  </si>
+  <si>
+    <t>肩甲S1</t>
+  </si>
+  <si>
+    <t>衣服S1</t>
+  </si>
+  <si>
+    <t>裤子S1</t>
+  </si>
+  <si>
+    <t>鞋子S1</t>
+  </si>
+  <si>
+    <t>项链S1</t>
+  </si>
+  <si>
+    <t>戒指S1</t>
+  </si>
+  <si>
+    <t>武器S2</t>
+  </si>
+  <si>
+    <t>头盔S2</t>
+  </si>
+  <si>
+    <t>肩甲S2</t>
+  </si>
+  <si>
+    <t>衣服S2</t>
+  </si>
+  <si>
+    <t>裤子S2</t>
+  </si>
+  <si>
+    <t>鞋子S2</t>
+  </si>
+  <si>
+    <t>项链S2</t>
+  </si>
+  <si>
+    <t>戒指S2</t>
+  </si>
+  <si>
+    <t>武器S3</t>
+  </si>
+  <si>
+    <t>头盔S3</t>
+  </si>
+  <si>
+    <t>肩甲S3</t>
+  </si>
+  <si>
+    <t>衣服S3</t>
+  </si>
+  <si>
+    <t>裤子S3</t>
+  </si>
+  <si>
+    <t>鞋子S3</t>
+  </si>
+  <si>
+    <t>项链S3</t>
+  </si>
+  <si>
+    <t>戒指S3</t>
+  </si>
+  <si>
+    <t>宝箱通用掉落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落各种道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破丹</t>
+  </si>
+  <si>
+    <t>初级精炼石</t>
+  </si>
+  <si>
+    <t>中级精炼石</t>
+  </si>
+  <si>
+    <t>高级精炼石</t>
+  </si>
+  <si>
+    <t>少量智慧机体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中量智慧机体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量智慧机体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石X88</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石X888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石X8888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑性纤维</t>
+  </si>
+  <si>
+    <t>碳钢纤维</t>
+  </si>
+  <si>
+    <t>钛晶纤维</t>
+  </si>
+  <si>
+    <t>可编程有机纤维</t>
+  </si>
+  <si>
+    <t>幸运宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以开出5~30,88,888,8888个钻石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特技精炼石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -779,7 +1065,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -803,6 +1089,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1218,11 +1514,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FD70F-D7F6-4B87-B905-1A30142832F7}">
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="14.25" customWidth="1"/>
+    <col min="16" max="16" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>45</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>101</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="7">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>102</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="7">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>103</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="7">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>104</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="7">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>105</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="7">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>106</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>107</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>108</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86DF135-B4EE-41D0-A47D-63CEE6568C5F}">
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:T230"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="F197" sqref="F197"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="N196" sqref="N196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1230,7 +2337,7 @@
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="15.875" customWidth="1"/>
     <col min="9" max="9" width="10.375" customWidth="1"/>
@@ -6696,7 +7803,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>190</v>
       </c>
@@ -6725,7 +7832,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>191</v>
       </c>
@@ -6754,618 +7861,1218 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="195" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="6">
+        <v>192</v>
+      </c>
+      <c r="B195" s="3">
+        <v>106</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E195" s="7"/>
+      <c r="F195" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G195" s="8">
+        <v>5</v>
+      </c>
+      <c r="H195" s="8">
+        <v>50</v>
+      </c>
+      <c r="I195" s="7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="6">
+        <v>193</v>
+      </c>
+      <c r="B196" s="3">
+        <v>106</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E196" s="7"/>
+      <c r="F196" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G196" s="8">
+        <v>88</v>
+      </c>
+      <c r="H196" s="8">
+        <v>88</v>
+      </c>
+      <c r="I196" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="6">
+        <v>194</v>
+      </c>
+      <c r="B197" s="3">
+        <v>106</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D197" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E197" s="7"/>
+      <c r="F197" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G197" s="8">
+        <v>888</v>
+      </c>
+      <c r="H197" s="8">
+        <v>888</v>
+      </c>
+      <c r="I197" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="6">
+        <v>195</v>
+      </c>
+      <c r="B198" s="3">
+        <v>106</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E198" s="7"/>
+      <c r="F198" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G198" s="8">
+        <v>8888</v>
+      </c>
+      <c r="H198" s="8">
+        <v>8888</v>
+      </c>
+      <c r="I198" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="6">
+        <v>196</v>
+      </c>
+      <c r="B199" s="3">
+        <v>106</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E199" s="7"/>
+      <c r="F199" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G199" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H199" s="8">
+        <v>500000</v>
+      </c>
+      <c r="I199" s="7"/>
+    </row>
+    <row r="200" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="6">
+        <v>197</v>
+      </c>
+      <c r="B200" s="3">
+        <v>106</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E200" s="7"/>
+      <c r="F200" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G200" s="8">
+        <v>1</v>
+      </c>
+      <c r="H200" s="8">
+        <v>10</v>
+      </c>
+      <c r="I200" s="7"/>
+    </row>
+    <row r="201" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="6">
+        <v>198</v>
+      </c>
+      <c r="B201" s="3">
+        <v>106</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E201" s="7"/>
+      <c r="F201" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G201" s="8">
+        <v>20</v>
+      </c>
+      <c r="H201" s="8">
+        <v>50</v>
+      </c>
+      <c r="I201" s="7"/>
+    </row>
+    <row r="202" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="6">
+        <v>199</v>
+      </c>
+      <c r="B202" s="3">
+        <v>106</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D202" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E202" s="7"/>
+      <c r="F202" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G202" s="8">
+        <v>100</v>
+      </c>
+      <c r="H202" s="8">
+        <v>300</v>
+      </c>
+      <c r="I202" s="7"/>
+    </row>
+    <row r="203" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="6">
+        <v>200</v>
+      </c>
+      <c r="B203" s="3">
+        <v>106</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E203" s="7"/>
+      <c r="F203" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G203" s="8">
+        <v>1</v>
+      </c>
+      <c r="H203" s="8">
+        <v>10</v>
+      </c>
+      <c r="I203" s="7"/>
+    </row>
+    <row r="204" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="6">
+        <v>201</v>
+      </c>
+      <c r="B204" s="3">
+        <v>106</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E204" s="7"/>
+      <c r="F204" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G204" s="8">
+        <v>1</v>
+      </c>
+      <c r="H204" s="8">
+        <v>5</v>
+      </c>
+      <c r="I204" s="7"/>
+    </row>
+    <row r="205" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="6">
+        <v>202</v>
+      </c>
+      <c r="B205" s="3">
+        <v>106</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E205" s="7"/>
+      <c r="F205" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G205" s="8">
+        <v>1</v>
+      </c>
+      <c r="H205" s="8">
+        <v>3</v>
+      </c>
+      <c r="I205" s="7"/>
+    </row>
+    <row r="206" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="6">
+        <v>203</v>
+      </c>
+      <c r="B206" s="3">
+        <v>106</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E206" s="7"/>
+      <c r="F206" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G206" s="8">
+        <v>1</v>
+      </c>
+      <c r="H206" s="8">
+        <v>1</v>
+      </c>
+      <c r="I206" s="7"/>
+    </row>
+    <row r="207" spans="1:20" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A207" s="6">
+        <v>204</v>
+      </c>
+      <c r="B207" s="3">
+        <v>107</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E207" s="3">
+        <v>1</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G207" s="3">
+        <v>1</v>
+      </c>
+      <c r="H207" s="3">
+        <v>1</v>
+      </c>
+      <c r="I207" s="3">
+        <v>302</v>
+      </c>
+      <c r="L207" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="M207" s="11"/>
+      <c r="N207" s="11"/>
+      <c r="O207" s="11"/>
+      <c r="P207" s="11"/>
+      <c r="Q207" s="11"/>
+      <c r="R207" s="11"/>
+      <c r="S207" s="11"/>
+      <c r="T207" s="11"/>
+    </row>
+    <row r="208" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A208" s="6">
+        <v>205</v>
+      </c>
+      <c r="B208" s="3">
+        <v>107</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E208" s="3">
+        <v>2</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G208" s="3">
+        <v>1</v>
+      </c>
+      <c r="H208" s="3">
+        <v>1</v>
+      </c>
+      <c r="I208" s="3">
+        <v>585</v>
+      </c>
+      <c r="L208">
+        <v>2</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+      <c r="O208">
+        <v>1</v>
+      </c>
+      <c r="P208">
+        <v>1</v>
+      </c>
+      <c r="Q208">
+        <v>1</v>
+      </c>
+      <c r="R208">
+        <v>1.5</v>
+      </c>
+      <c r="S208">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A209" s="6">
+        <v>206</v>
+      </c>
+      <c r="B209" s="3">
+        <v>107</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E209" s="3">
+        <v>3</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G209" s="3">
+        <v>1</v>
+      </c>
+      <c r="H209" s="3">
+        <v>1</v>
+      </c>
+      <c r="I209" s="3">
+        <v>585</v>
+      </c>
+      <c r="L209">
+        <v>5</v>
+      </c>
+      <c r="M209">
+        <v>10</v>
+      </c>
+      <c r="N209">
+        <v>10</v>
+      </c>
+      <c r="O209">
+        <v>10</v>
+      </c>
+      <c r="P209">
+        <v>10</v>
+      </c>
+      <c r="Q209">
+        <v>10</v>
+      </c>
+      <c r="R209">
+        <f>10/R208</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="S209">
+        <f>10/S208</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="T209">
+        <f>SUM(L209:S209)</f>
+        <v>68.333333333333329</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A210" s="6">
+        <v>207</v>
+      </c>
+      <c r="B210" s="3">
+        <v>107</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E210" s="3">
+        <v>4</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G210" s="3">
+        <v>1</v>
+      </c>
+      <c r="H210" s="3">
+        <v>1</v>
+      </c>
+      <c r="I210" s="3">
+        <v>585</v>
+      </c>
+      <c r="L210">
+        <f>L209/$T$209</f>
+        <v>7.3170731707317083E-2</v>
+      </c>
+      <c r="M210">
+        <f>M209/$T$209</f>
+        <v>0.14634146341463417</v>
+      </c>
+      <c r="N210">
+        <f>N209/$T$209</f>
+        <v>0.14634146341463417</v>
+      </c>
+      <c r="O210">
+        <f>O209/$T$209</f>
+        <v>0.14634146341463417</v>
+      </c>
+      <c r="P210">
+        <f>P209/$T$209</f>
+        <v>0.14634146341463417</v>
+      </c>
+      <c r="Q210">
+        <f>Q209/$T$209</f>
+        <v>0.14634146341463417</v>
+      </c>
+      <c r="R210">
+        <f>R209/$T$209</f>
+        <v>9.7560975609756115E-2</v>
+      </c>
+      <c r="S210">
+        <f>S209/$T$209</f>
+        <v>9.7560975609756115E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A211" s="6">
+        <v>208</v>
+      </c>
+      <c r="B211" s="3">
+        <v>107</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E211" s="3">
+        <v>5</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G211" s="3">
+        <v>1</v>
+      </c>
+      <c r="H211" s="3">
+        <v>1</v>
+      </c>
+      <c r="I211" s="3">
+        <v>585</v>
+      </c>
+      <c r="K211" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L211">
+        <f>INT($K211*L$210*10000)</f>
+        <v>292</v>
+      </c>
+      <c r="M211">
+        <f>INT($K211*M$210*10000)</f>
+        <v>585</v>
+      </c>
+      <c r="N211">
+        <f>INT($K211*N$210*10000)</f>
+        <v>585</v>
+      </c>
+      <c r="O211">
+        <f>INT($K211*O$210*10000)</f>
+        <v>585</v>
+      </c>
+      <c r="P211">
+        <f>INT($K211*P$210*10000)</f>
+        <v>585</v>
+      </c>
+      <c r="Q211">
+        <f>INT($K211*Q$210*10000)</f>
+        <v>585</v>
+      </c>
+      <c r="R211">
+        <f>INT($K211*R$210*10000)</f>
+        <v>390</v>
+      </c>
+      <c r="S211">
+        <f>INT($K211*S$210*10000)</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A212" s="6">
+        <v>209</v>
+      </c>
+      <c r="B212" s="3">
+        <v>107</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E212" s="3">
+        <v>6</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G212" s="3">
+        <v>1</v>
+      </c>
+      <c r="H212" s="3">
+        <v>1</v>
+      </c>
+      <c r="I212" s="3">
+        <v>585</v>
+      </c>
+      <c r="K212" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L212">
+        <f>INT($K212*L$210*10000)</f>
+        <v>292</v>
+      </c>
+      <c r="M212">
+        <f>INT($K212*M$210*10000)</f>
+        <v>585</v>
+      </c>
+      <c r="N212">
+        <f>INT($K212*N$210*10000)</f>
+        <v>585</v>
+      </c>
+      <c r="O212">
+        <f>INT($K212*O$210*10000)</f>
+        <v>585</v>
+      </c>
+      <c r="P212">
+        <f>INT($K212*P$210*10000)</f>
+        <v>585</v>
+      </c>
+      <c r="Q212">
+        <f>INT($K212*Q$210*10000)</f>
+        <v>585</v>
+      </c>
+      <c r="R212">
+        <f>INT($K212*R$210*10000)</f>
+        <v>390</v>
+      </c>
+      <c r="S212">
+        <f>INT($K212*S$210*10000)</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A213" s="6">
+        <v>210</v>
+      </c>
+      <c r="B213" s="3">
+        <v>107</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E213" s="3">
+        <v>7</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G213" s="3">
+        <v>1</v>
+      </c>
+      <c r="H213" s="3">
+        <v>1</v>
+      </c>
+      <c r="I213" s="3">
+        <v>390</v>
+      </c>
+      <c r="K213" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L213">
+        <f>INT($K213*L$210*10000)</f>
+        <v>146</v>
+      </c>
+      <c r="M213">
+        <f>INT($K213*M$210*10000)</f>
+        <v>292</v>
+      </c>
+      <c r="N213">
+        <f>INT($K213*N$210*10000)</f>
+        <v>292</v>
+      </c>
+      <c r="O213">
+        <f>INT($K213*O$210*10000)</f>
+        <v>292</v>
+      </c>
+      <c r="P213">
+        <f>INT($K213*P$210*10000)</f>
+        <v>292</v>
+      </c>
+      <c r="Q213">
+        <f>INT($K213*Q$210*10000)</f>
+        <v>292</v>
+      </c>
+      <c r="R213">
+        <f>INT($K213*R$210*10000)</f>
+        <v>195</v>
+      </c>
+      <c r="S213">
+        <f>INT($K213*S$210*10000)</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A214" s="6">
+        <v>211</v>
+      </c>
+      <c r="B214" s="3">
+        <v>107</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E214" s="3">
+        <v>8</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G214" s="3">
+        <v>1</v>
+      </c>
+      <c r="H214" s="3">
+        <v>1</v>
+      </c>
+      <c r="I214" s="3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A215" s="6">
+        <v>212</v>
+      </c>
+      <c r="B215" s="3">
+        <v>107</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E215" s="3">
+        <v>9</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G215" s="3">
+        <v>1</v>
+      </c>
+      <c r="H215" s="3">
+        <v>1</v>
+      </c>
+      <c r="I215" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A216" s="6">
+        <v>213</v>
+      </c>
+      <c r="B216" s="3">
+        <v>107</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E216" s="3">
+        <v>10</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G216" s="3">
+        <v>1</v>
+      </c>
+      <c r="H216" s="3">
+        <v>1</v>
+      </c>
+      <c r="I216" s="3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A217" s="6">
+        <v>214</v>
+      </c>
+      <c r="B217" s="3">
+        <v>107</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E217" s="3">
+        <v>11</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G217" s="3">
+        <v>1</v>
+      </c>
+      <c r="H217" s="3">
+        <v>1</v>
+      </c>
+      <c r="I217" s="3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A218" s="6">
+        <v>215</v>
+      </c>
+      <c r="B218" s="3">
+        <v>107</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E218" s="3">
+        <v>12</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G218" s="3">
+        <v>1</v>
+      </c>
+      <c r="H218" s="3">
+        <v>1</v>
+      </c>
+      <c r="I218" s="3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A219" s="6">
+        <v>216</v>
+      </c>
+      <c r="B219" s="3">
+        <v>107</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E219" s="3">
+        <v>13</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G219" s="3">
+        <v>1</v>
+      </c>
+      <c r="H219" s="3">
+        <v>1</v>
+      </c>
+      <c r="I219" s="3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A220" s="6">
+        <v>217</v>
+      </c>
+      <c r="B220" s="3">
+        <v>107</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E220" s="3">
+        <v>14</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G220" s="3">
+        <v>1</v>
+      </c>
+      <c r="H220" s="3">
+        <v>1</v>
+      </c>
+      <c r="I220" s="3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A221" s="6">
+        <v>218</v>
+      </c>
+      <c r="B221" s="3">
+        <v>107</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E221" s="3">
+        <v>15</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G221" s="3">
+        <v>1</v>
+      </c>
+      <c r="H221" s="3">
+        <v>1</v>
+      </c>
+      <c r="I221" s="3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A222" s="6">
+        <v>219</v>
+      </c>
+      <c r="B222" s="3">
+        <v>107</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E222" s="3">
+        <v>16</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G222" s="3">
+        <v>1</v>
+      </c>
+      <c r="H222" s="3">
+        <v>1</v>
+      </c>
+      <c r="I222" s="3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A223" s="6">
+        <v>220</v>
+      </c>
+      <c r="B223" s="3">
+        <v>107</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E223" s="3">
+        <v>17</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G223" s="3">
+        <v>1</v>
+      </c>
+      <c r="H223" s="3">
+        <v>1</v>
+      </c>
+      <c r="I223" s="3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A224" s="6">
+        <v>221</v>
+      </c>
+      <c r="B224" s="3">
+        <v>107</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E224" s="3">
+        <v>18</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G224" s="3">
+        <v>1</v>
+      </c>
+      <c r="H224" s="3">
+        <v>1</v>
+      </c>
+      <c r="I224" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A225" s="6">
+        <v>222</v>
+      </c>
+      <c r="B225" s="3">
+        <v>107</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E225" s="3">
+        <v>19</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G225" s="3">
+        <v>1</v>
+      </c>
+      <c r="H225" s="3">
+        <v>1</v>
+      </c>
+      <c r="I225" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A226" s="6">
+        <v>223</v>
+      </c>
+      <c r="B226" s="3">
+        <v>107</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E226" s="3">
+        <v>20</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G226" s="3">
+        <v>1</v>
+      </c>
+      <c r="H226" s="3">
+        <v>1</v>
+      </c>
+      <c r="I226" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A227" s="6">
+        <v>224</v>
+      </c>
+      <c r="B227" s="3">
+        <v>107</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E227" s="3">
+        <v>21</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G227" s="3">
+        <v>1</v>
+      </c>
+      <c r="H227" s="3">
+        <v>1</v>
+      </c>
+      <c r="I227" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A228" s="6">
+        <v>225</v>
+      </c>
+      <c r="B228" s="3">
+        <v>107</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E228" s="3">
+        <v>22</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G228" s="3">
+        <v>1</v>
+      </c>
+      <c r="H228" s="3">
+        <v>1</v>
+      </c>
+      <c r="I228" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A229" s="6">
+        <v>226</v>
+      </c>
+      <c r="B229" s="3">
+        <v>107</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E229" s="3">
+        <v>23</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G229" s="3">
+        <v>1</v>
+      </c>
+      <c r="H229" s="3">
+        <v>1</v>
+      </c>
+      <c r="I229" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A230" s="6">
+        <v>227</v>
+      </c>
+      <c r="B230" s="3">
+        <v>107</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E230" s="3">
+        <v>24</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G230" s="3">
+        <v>1</v>
+      </c>
+      <c r="H230" s="3">
+        <v>1</v>
+      </c>
+      <c r="I230" s="3">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L207:T207"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FD70F-D7F6-4B87-B905-1A30142832F7}">
-  <dimension ref="A1:C53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="13.25" customWidth="1"/>
-    <col min="13" max="13" width="14.25" customWidth="1"/>
-    <col min="15" max="15" width="10.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>27</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>31</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>32</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>33</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>34</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>35</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>36</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>37</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>38</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>39</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>40</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>41</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>42</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>43</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>44</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
-        <v>45</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
-        <v>101</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="7">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
-        <v>102</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="7">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
-        <v>103</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="7">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
-        <v>104</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="7">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
-        <v>105</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="7">
-        <v>13000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel/drop.掉落.xlsx
+++ b/Excel/drop.掉落.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97BD1D3-6E09-4E2B-BE9E-22C2403602B9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5795AD16-703C-4FC9-A1BA-201A4CF94C29}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="dropGroup" sheetId="29" r:id="rId2"/>
     <sheet name="drop" sheetId="26" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="247">
   <si>
     <t>sheet名</t>
   </si>
@@ -1093,11 +1093,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2283,7 +2283,7 @@
       <c r="B54" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>245</v>
       </c>
       <c r="D54" s="7">
@@ -2328,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86DF135-B4EE-41D0-A47D-63CEE6568C5F}">
   <dimension ref="A1:T230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="N196" sqref="N196"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="I203" sqref="I203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7871,10 +7871,12 @@
       <c r="C195" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D195" s="12" t="s">
+      <c r="D195" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E195" s="7"/>
+      <c r="E195" s="7">
+        <v>1</v>
+      </c>
       <c r="F195" s="6" t="s">
         <v>228</v>
       </c>
@@ -7898,10 +7900,12 @@
       <c r="C196" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D196" s="12" t="s">
+      <c r="D196" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E196" s="7"/>
+      <c r="E196" s="7">
+        <v>2</v>
+      </c>
       <c r="F196" s="6" t="s">
         <v>228</v>
       </c>
@@ -7925,10 +7929,12 @@
       <c r="C197" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D197" s="12" t="s">
+      <c r="D197" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E197" s="7"/>
+      <c r="E197" s="7">
+        <v>3</v>
+      </c>
       <c r="F197" s="6" t="s">
         <v>228</v>
       </c>
@@ -7952,10 +7958,12 @@
       <c r="C198" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D198" s="12" t="s">
+      <c r="D198" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E198" s="7"/>
+      <c r="E198" s="7">
+        <v>4</v>
+      </c>
       <c r="F198" s="6" t="s">
         <v>228</v>
       </c>
@@ -7974,15 +7982,17 @@
         <v>196</v>
       </c>
       <c r="B199" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D199" s="12" t="s">
+      <c r="D199" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="E199" s="7"/>
+      <c r="E199" s="7">
+        <v>1</v>
+      </c>
       <c r="F199" s="6" t="s">
         <v>226</v>
       </c>
@@ -7992,22 +8002,26 @@
       <c r="H199" s="8">
         <v>500000</v>
       </c>
-      <c r="I199" s="7"/>
+      <c r="I199" s="7">
+        <v>5000</v>
+      </c>
     </row>
     <row r="200" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>197</v>
       </c>
       <c r="B200" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D200" s="12" t="s">
+      <c r="D200" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="E200" s="7"/>
+      <c r="E200" s="7">
+        <v>2</v>
+      </c>
       <c r="F200" s="6" t="s">
         <v>230</v>
       </c>
@@ -8017,22 +8031,26 @@
       <c r="H200" s="8">
         <v>10</v>
       </c>
-      <c r="I200" s="7"/>
+      <c r="I200" s="7">
+        <v>1500</v>
+      </c>
     </row>
     <row r="201" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>198</v>
       </c>
       <c r="B201" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D201" s="12" t="s">
+      <c r="D201" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="E201" s="7"/>
+      <c r="E201" s="7">
+        <v>3</v>
+      </c>
       <c r="F201" s="6" t="s">
         <v>230</v>
       </c>
@@ -8042,22 +8060,26 @@
       <c r="H201" s="8">
         <v>50</v>
       </c>
-      <c r="I201" s="7"/>
+      <c r="I201" s="7">
+        <v>1000</v>
+      </c>
     </row>
     <row r="202" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>199</v>
       </c>
       <c r="B202" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D202" s="12" t="s">
+      <c r="D202" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E202" s="7"/>
+      <c r="E202" s="7">
+        <v>4</v>
+      </c>
       <c r="F202" s="6" t="s">
         <v>230</v>
       </c>
@@ -8067,14 +8089,16 @@
       <c r="H202" s="8">
         <v>300</v>
       </c>
-      <c r="I202" s="7"/>
+      <c r="I202" s="7">
+        <v>200</v>
+      </c>
     </row>
     <row r="203" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>200</v>
       </c>
       <c r="B203" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>69</v>
@@ -8082,7 +8106,9 @@
       <c r="D203" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E203" s="7"/>
+      <c r="E203" s="7">
+        <v>5</v>
+      </c>
       <c r="F203" s="6" t="s">
         <v>231</v>
       </c>
@@ -8092,14 +8118,16 @@
       <c r="H203" s="8">
         <v>10</v>
       </c>
-      <c r="I203" s="7"/>
+      <c r="I203" s="7">
+        <v>1000</v>
+      </c>
     </row>
     <row r="204" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>201</v>
       </c>
       <c r="B204" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>69</v>
@@ -8107,7 +8135,9 @@
       <c r="D204" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E204" s="7"/>
+      <c r="E204" s="7">
+        <v>6</v>
+      </c>
       <c r="F204" s="6" t="s">
         <v>232</v>
       </c>
@@ -8117,14 +8147,16 @@
       <c r="H204" s="8">
         <v>5</v>
       </c>
-      <c r="I204" s="7"/>
+      <c r="I204" s="7">
+        <v>800</v>
+      </c>
     </row>
     <row r="205" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>202</v>
       </c>
       <c r="B205" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>69</v>
@@ -8132,7 +8164,9 @@
       <c r="D205" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="E205" s="7"/>
+      <c r="E205" s="7">
+        <v>7</v>
+      </c>
       <c r="F205" s="6" t="s">
         <v>233</v>
       </c>
@@ -8142,14 +8176,16 @@
       <c r="H205" s="8">
         <v>3</v>
       </c>
-      <c r="I205" s="7"/>
+      <c r="I205" s="7">
+        <v>400</v>
+      </c>
     </row>
     <row r="206" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>203</v>
       </c>
       <c r="B206" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>69</v>
@@ -8157,8 +8193,10 @@
       <c r="D206" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E206" s="7"/>
-      <c r="F206" s="12" t="s">
+      <c r="E206" s="7">
+        <v>8</v>
+      </c>
+      <c r="F206" s="11" t="s">
         <v>246</v>
       </c>
       <c r="G206" s="8">
@@ -8167,14 +8205,16 @@
       <c r="H206" s="8">
         <v>1</v>
       </c>
-      <c r="I206" s="7"/>
+      <c r="I206" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="207" spans="1:20" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>204</v>
       </c>
       <c r="B207" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>69</v>
@@ -8197,24 +8237,24 @@
       <c r="I207" s="3">
         <v>302</v>
       </c>
-      <c r="L207" s="11" t="s">
+      <c r="L207" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="M207" s="11"/>
-      <c r="N207" s="11"/>
-      <c r="O207" s="11"/>
-      <c r="P207" s="11"/>
-      <c r="Q207" s="11"/>
-      <c r="R207" s="11"/>
-      <c r="S207" s="11"/>
-      <c r="T207" s="11"/>
+      <c r="M207" s="12"/>
+      <c r="N207" s="12"/>
+      <c r="O207" s="12"/>
+      <c r="P207" s="12"/>
+      <c r="Q207" s="12"/>
+      <c r="R207" s="12"/>
+      <c r="S207" s="12"/>
+      <c r="T207" s="12"/>
     </row>
     <row r="208" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>205</v>
       </c>
       <c r="B208" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>69</v>
@@ -8267,7 +8307,7 @@
         <v>206</v>
       </c>
       <c r="B209" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>69</v>
@@ -8326,7 +8366,7 @@
         <v>207</v>
       </c>
       <c r="B210" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>69</v>
@@ -8350,35 +8390,35 @@
         <v>585</v>
       </c>
       <c r="L210">
-        <f>L209/$T$209</f>
+        <f t="shared" ref="L210:S210" si="3">L209/$T$209</f>
         <v>7.3170731707317083E-2</v>
       </c>
       <c r="M210">
-        <f>M209/$T$209</f>
+        <f t="shared" si="3"/>
         <v>0.14634146341463417</v>
       </c>
       <c r="N210">
-        <f>N209/$T$209</f>
+        <f t="shared" si="3"/>
         <v>0.14634146341463417</v>
       </c>
       <c r="O210">
-        <f>O209/$T$209</f>
+        <f t="shared" si="3"/>
         <v>0.14634146341463417</v>
       </c>
       <c r="P210">
-        <f>P209/$T$209</f>
+        <f t="shared" si="3"/>
         <v>0.14634146341463417</v>
       </c>
       <c r="Q210">
-        <f>Q209/$T$209</f>
+        <f t="shared" si="3"/>
         <v>0.14634146341463417</v>
       </c>
       <c r="R210">
-        <f>R209/$T$209</f>
+        <f t="shared" si="3"/>
         <v>9.7560975609756115E-2</v>
       </c>
       <c r="S210">
-        <f>S209/$T$209</f>
+        <f t="shared" si="3"/>
         <v>9.7560975609756115E-2</v>
       </c>
     </row>
@@ -8387,7 +8427,7 @@
         <v>208</v>
       </c>
       <c r="B211" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>69</v>
@@ -8414,35 +8454,35 @@
         <v>0.4</v>
       </c>
       <c r="L211">
-        <f>INT($K211*L$210*10000)</f>
+        <f t="shared" ref="L211:S213" si="4">INT($K211*L$210*10000)</f>
         <v>292</v>
       </c>
       <c r="M211">
-        <f>INT($K211*M$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>585</v>
       </c>
       <c r="N211">
-        <f>INT($K211*N$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>585</v>
       </c>
       <c r="O211">
-        <f>INT($K211*O$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>585</v>
       </c>
       <c r="P211">
-        <f>INT($K211*P$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>585</v>
       </c>
       <c r="Q211">
-        <f>INT($K211*Q$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>585</v>
       </c>
       <c r="R211">
-        <f>INT($K211*R$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>390</v>
       </c>
       <c r="S211">
-        <f>INT($K211*S$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>390</v>
       </c>
     </row>
@@ -8451,7 +8491,7 @@
         <v>209</v>
       </c>
       <c r="B212" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>69</v>
@@ -8478,35 +8518,35 @@
         <v>0.4</v>
       </c>
       <c r="L212">
-        <f>INT($K212*L$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="M212">
-        <f>INT($K212*M$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>585</v>
       </c>
       <c r="N212">
-        <f>INT($K212*N$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>585</v>
       </c>
       <c r="O212">
-        <f>INT($K212*O$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>585</v>
       </c>
       <c r="P212">
-        <f>INT($K212*P$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>585</v>
       </c>
       <c r="Q212">
-        <f>INT($K212*Q$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>585</v>
       </c>
       <c r="R212">
-        <f>INT($K212*R$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>390</v>
       </c>
       <c r="S212">
-        <f>INT($K212*S$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>390</v>
       </c>
     </row>
@@ -8515,7 +8555,7 @@
         <v>210</v>
       </c>
       <c r="B213" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>69</v>
@@ -8542,35 +8582,35 @@
         <v>0.2</v>
       </c>
       <c r="L213">
-        <f>INT($K213*L$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>146</v>
       </c>
       <c r="M213">
-        <f>INT($K213*M$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="N213">
-        <f>INT($K213*N$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="O213">
-        <f>INT($K213*O$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="P213">
-        <f>INT($K213*P$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="Q213">
-        <f>INT($K213*Q$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="R213">
-        <f>INT($K213*R$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>195</v>
       </c>
       <c r="S213">
-        <f>INT($K213*S$210*10000)</f>
+        <f t="shared" si="4"/>
         <v>195</v>
       </c>
     </row>
@@ -8579,7 +8619,7 @@
         <v>211</v>
       </c>
       <c r="B214" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>69</v>
@@ -8608,7 +8648,7 @@
         <v>212</v>
       </c>
       <c r="B215" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>69</v>
@@ -8637,7 +8677,7 @@
         <v>213</v>
       </c>
       <c r="B216" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>69</v>
@@ -8666,7 +8706,7 @@
         <v>214</v>
       </c>
       <c r="B217" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>69</v>
@@ -8695,7 +8735,7 @@
         <v>215</v>
       </c>
       <c r="B218" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>69</v>
@@ -8724,7 +8764,7 @@
         <v>216</v>
       </c>
       <c r="B219" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>69</v>
@@ -8753,7 +8793,7 @@
         <v>217</v>
       </c>
       <c r="B220" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>69</v>
@@ -8782,7 +8822,7 @@
         <v>218</v>
       </c>
       <c r="B221" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>69</v>
@@ -8811,7 +8851,7 @@
         <v>219</v>
       </c>
       <c r="B222" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>69</v>
@@ -8840,7 +8880,7 @@
         <v>220</v>
       </c>
       <c r="B223" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>69</v>
@@ -8869,7 +8909,7 @@
         <v>221</v>
       </c>
       <c r="B224" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>69</v>
@@ -8898,7 +8938,7 @@
         <v>222</v>
       </c>
       <c r="B225" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>69</v>
@@ -8927,7 +8967,7 @@
         <v>223</v>
       </c>
       <c r="B226" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>69</v>
@@ -8956,7 +8996,7 @@
         <v>224</v>
       </c>
       <c r="B227" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>69</v>
@@ -8985,7 +9025,7 @@
         <v>225</v>
       </c>
       <c r="B228" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>69</v>
@@ -9014,7 +9054,7 @@
         <v>226</v>
       </c>
       <c r="B229" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>69</v>
@@ -9043,7 +9083,7 @@
         <v>227</v>
       </c>
       <c r="B230" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>69</v>
